--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -196,298 +196,949 @@
     <t>CRE</t>
   </si>
   <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>CX8</t>
+  </si>
+  <si>
+    <t>D2D</t>
+  </si>
+  <si>
+    <t>DAD</t>
+  </si>
+  <si>
+    <t>DAH</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>DGW</t>
+  </si>
+  <si>
+    <t>DLG</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>DQC</t>
+  </si>
+  <si>
+    <t>DRG</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DTK</t>
+  </si>
+  <si>
+    <t>DVP</t>
+  </si>
+  <si>
+    <t>DXG</t>
+  </si>
+  <si>
+    <t>DXS</t>
+  </si>
+  <si>
+    <t>EIC</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>FIC</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>GEX</t>
+  </si>
+  <si>
+    <t>GIC</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>HCO</t>
+  </si>
+  <si>
+    <t>HCT</t>
+  </si>
+  <si>
+    <t>HD6</t>
+  </si>
+  <si>
+    <t>HDA</t>
+  </si>
+  <si>
+    <t>HEV</t>
+  </si>
+  <si>
+    <t>HGM</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>HRC</t>
+  </si>
+  <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>HTE</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>HTV</t>
+  </si>
+  <si>
+    <t>HU1</t>
+  </si>
+  <si>
+    <t>HU4</t>
+  </si>
+  <si>
+    <t>HUG</t>
+  </si>
+  <si>
+    <t>HVH</t>
+  </si>
+  <si>
+    <t>HVT</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>KMT</t>
+  </si>
+  <si>
+    <t>KSV</t>
+  </si>
+  <si>
+    <t>LCG</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>LIX</t>
+  </si>
+  <si>
+    <t>LPT</t>
+  </si>
+  <si>
+    <t>LSS</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>MDC</t>
+  </si>
+  <si>
+    <t>MML</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MVN</t>
+  </si>
+  <si>
+    <t>NAW</t>
+  </si>
+  <si>
+    <t>NCG</t>
+  </si>
+  <si>
+    <t>ND2</t>
+  </si>
+  <si>
+    <t>NHC</t>
+  </si>
+  <si>
+    <t>NHH</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PCH</t>
+  </si>
+  <si>
+    <t>PDB</t>
+  </si>
+  <si>
+    <t>PDN</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>PQN</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PSW</t>
+  </si>
+  <si>
+    <t>PVB</t>
+  </si>
+  <si>
+    <t>PVG</t>
+  </si>
+  <si>
+    <t>PVS</t>
+  </si>
+  <si>
+    <t>PXL</t>
+  </si>
+  <si>
+    <t>QTP</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>RTB</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>SBM</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SII</t>
+  </si>
+  <si>
+    <t>SJ1</t>
+  </si>
+  <si>
+    <t>SJG</t>
+  </si>
+  <si>
+    <t>SJS</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>SZB</t>
+  </si>
+  <si>
+    <t>TA9</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>TBX</t>
+  </si>
+  <si>
+    <t>TCK</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>THG</t>
+  </si>
+  <si>
+    <t>TNC</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>TTS</t>
+  </si>
+  <si>
+    <t>TV4</t>
+  </si>
+  <si>
+    <t>TVT</t>
+  </si>
+  <si>
+    <t>TYA</t>
+  </si>
+  <si>
+    <t>UIC</t>
+  </si>
+  <si>
+    <t>VCG</t>
+  </si>
+  <si>
+    <t>VCP</t>
+  </si>
+  <si>
+    <t>VGC</t>
+  </si>
+  <si>
+    <t>VGI</t>
+  </si>
+  <si>
+    <t>VGR</t>
+  </si>
+  <si>
+    <t>VGS</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>VGV</t>
+  </si>
+  <si>
+    <t>VHL</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>VLB</t>
+  </si>
+  <si>
+    <t>VNB</t>
+  </si>
+  <si>
+    <t>VNT</t>
+  </si>
+  <si>
+    <t>VOS</t>
+  </si>
+  <si>
+    <t>VPD</t>
+  </si>
+  <si>
+    <t>VPG</t>
+  </si>
+  <si>
+    <t>VPS</t>
+  </si>
+  <si>
+    <t>VRC</t>
+  </si>
+  <si>
+    <t>VSC</t>
+  </si>
+  <si>
+    <t>VSM</t>
+  </si>
+  <si>
+    <t>VTQ</t>
+  </si>
+  <si>
+    <t>VTZ</t>
+  </si>
+  <si>
+    <t>VVS</t>
+  </si>
+  <si>
+    <t>XHC</t>
+  </si>
+  <si>
+    <t>XMP</t>
+  </si>
+  <si>
+    <t>YEG</t>
+  </si>
+  <si>
+    <t>AAH</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>ADG</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>BCF</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>BDG</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>BGW</t>
+  </si>
+  <si>
+    <t>BHA</t>
+  </si>
+  <si>
+    <t>BKC</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>BSA</t>
+  </si>
+  <si>
+    <t>BSQ</t>
+  </si>
+  <si>
+    <t>BTH</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>CFV</t>
+  </si>
+  <si>
+    <t>CIG</t>
+  </si>
+  <si>
+    <t>CLW</t>
+  </si>
+  <si>
+    <t>CMF</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>CMV</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>CQT</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
     <t>CTD</t>
   </si>
   <si>
-    <t>CTI</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>CX8</t>
-  </si>
-  <si>
-    <t>D2D</t>
-  </si>
-  <si>
-    <t>DAD</t>
-  </si>
-  <si>
-    <t>DAH</t>
-  </si>
-  <si>
-    <t>DCM</t>
-  </si>
-  <si>
-    <t>DGW</t>
-  </si>
-  <si>
-    <t>DLG</t>
-  </si>
-  <si>
-    <t>DPM</t>
-  </si>
-  <si>
-    <t>DQC</t>
-  </si>
-  <si>
-    <t>DRG</t>
-  </si>
-  <si>
-    <t>DS3</t>
-  </si>
-  <si>
-    <t>DTK</t>
-  </si>
-  <si>
-    <t>DVP</t>
-  </si>
-  <si>
-    <t>DXG</t>
-  </si>
-  <si>
-    <t>DXS</t>
-  </si>
-  <si>
-    <t>EIC</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>FCN</t>
-  </si>
-  <si>
-    <t>FIC</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
-    <t>GEX</t>
-  </si>
-  <si>
-    <t>GIC</t>
-  </si>
-  <si>
-    <t>GSM</t>
-  </si>
-  <si>
-    <t>HAD</t>
-  </si>
-  <si>
-    <t>HCO</t>
-  </si>
-  <si>
-    <t>HCT</t>
-  </si>
-  <si>
-    <t>HD6</t>
-  </si>
-  <si>
-    <t>HDA</t>
-  </si>
-  <si>
-    <t>HEV</t>
-  </si>
-  <si>
-    <t>HGM</t>
-  </si>
-  <si>
-    <t>HNA</t>
-  </si>
-  <si>
-    <t>HRC</t>
-  </si>
-  <si>
-    <t>HT1</t>
-  </si>
-  <si>
-    <t>HTE</t>
-  </si>
-  <si>
-    <t>HTG</t>
-  </si>
-  <si>
-    <t>HTV</t>
-  </si>
-  <si>
-    <t>HU1</t>
-  </si>
-  <si>
-    <t>HU4</t>
-  </si>
-  <si>
-    <t>HUG</t>
-  </si>
-  <si>
-    <t>HVH</t>
-  </si>
-  <si>
-    <t>HVT</t>
-  </si>
-  <si>
-    <t>IDC</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>KMT</t>
-  </si>
-  <si>
-    <t>KSV</t>
-  </si>
-  <si>
-    <t>LCG</t>
-  </si>
-  <si>
-    <t>LIC</t>
-  </si>
-  <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>LIX</t>
-  </si>
-  <si>
-    <t>LPT</t>
-  </si>
-  <si>
-    <t>LSS</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>MCP</t>
-  </si>
-  <si>
-    <t>MDC</t>
+    <t>CTF</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>CTT</t>
+  </si>
+  <si>
+    <t>CVT</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>DHB</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>DHP</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>DNH</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DPG</t>
+  </si>
+  <si>
+    <t>DSD</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>DTT</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>DWC</t>
+  </si>
+  <si>
+    <t>DWS</t>
+  </si>
+  <si>
+    <t>DXV</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>ECI</t>
+  </si>
+  <si>
+    <t>EID</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>FOC</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>GDA</t>
+  </si>
+  <si>
+    <t>GDT</t>
+  </si>
+  <si>
+    <t>GEE</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>GMH</t>
+  </si>
+  <si>
+    <t>GMX</t>
+  </si>
+  <si>
+    <t>GTS</t>
+  </si>
+  <si>
+    <t>GVR</t>
+  </si>
+  <si>
+    <t>HAH</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>HAP</t>
+  </si>
+  <si>
+    <t>HAX</t>
+  </si>
+  <si>
+    <t>HBC</t>
+  </si>
+  <si>
+    <t>HCC</t>
+  </si>
+  <si>
+    <t>HDM</t>
+  </si>
+  <si>
+    <t>HIO</t>
+  </si>
+  <si>
+    <t>HLC</t>
+  </si>
+  <si>
+    <t>HNI</t>
+  </si>
+  <si>
+    <t>HOM</t>
+  </si>
+  <si>
+    <t>HPW</t>
+  </si>
+  <si>
+    <t>HSV</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>HUT</t>
+  </si>
+  <si>
+    <t>ICF</t>
+  </si>
+  <si>
+    <t>ICN</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>KDH</t>
+  </si>
+  <si>
+    <t>KHG</t>
+  </si>
+  <si>
+    <t>KHP</t>
+  </si>
+  <si>
+    <t>KHW</t>
+  </si>
+  <si>
+    <t>KOS</t>
+  </si>
+  <si>
+    <t>KSF</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>LAF</t>
+  </si>
+  <si>
+    <t>LAW</t>
+  </si>
+  <si>
+    <t>LDP</t>
+  </si>
+  <si>
+    <t>LDW</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>MED</t>
   </si>
   <si>
     <t>MEL</t>
   </si>
   <si>
-    <t>MML</t>
-  </si>
-  <si>
-    <t>MSR</t>
-  </si>
-  <si>
-    <t>MVN</t>
-  </si>
-  <si>
-    <t>NAW</t>
-  </si>
-  <si>
-    <t>NCG</t>
-  </si>
-  <si>
-    <t>ND2</t>
-  </si>
-  <si>
-    <t>NHC</t>
-  </si>
-  <si>
-    <t>NHH</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>PCH</t>
-  </si>
-  <si>
-    <t>PDB</t>
-  </si>
-  <si>
-    <t>PDN</t>
-  </si>
-  <si>
-    <t>POT</t>
-  </si>
-  <si>
-    <t>PQN</t>
-  </si>
-  <si>
-    <t>PSD</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>PSW</t>
-  </si>
-  <si>
-    <t>PVB</t>
-  </si>
-  <si>
-    <t>PVG</t>
-  </si>
-  <si>
-    <t>PVS</t>
-  </si>
-  <si>
-    <t>PXL</t>
-  </si>
-  <si>
-    <t>QTP</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
-    <t>RTB</t>
-  </si>
-  <si>
-    <t>S55</t>
-  </si>
-  <si>
-    <t>S72</t>
-  </si>
-  <si>
-    <t>SAB</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>SBM</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>SDC</t>
-  </si>
-  <si>
-    <t>SHA</t>
-  </si>
-  <si>
-    <t>SHN</t>
-  </si>
-  <si>
-    <t>SHP</t>
-  </si>
-  <si>
-    <t>SII</t>
-  </si>
-  <si>
-    <t>SJ1</t>
-  </si>
-  <si>
-    <t>SJG</t>
-  </si>
-  <si>
-    <t>SJS</t>
-  </si>
-  <si>
-    <t>SMA</t>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>MKP</t>
+  </si>
+  <si>
+    <t>MNB</t>
+  </si>
+  <si>
+    <t>MSH</t>
+  </si>
+  <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>MTA</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>NBP</t>
+  </si>
+  <si>
+    <t>NBT</t>
+  </si>
+  <si>
+    <t>NCT</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>NNC</t>
+  </si>
+  <si>
+    <t>NO1</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>NSH</t>
+  </si>
+  <si>
+    <t>NT2</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>OCH</t>
+  </si>
+  <si>
+    <t>OGC</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>PGN</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PIA</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>POV</t>
+  </si>
+  <si>
+    <t>PPY</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>PTV</t>
+  </si>
+  <si>
+    <t>PVD</t>
+  </si>
+  <si>
+    <t>PXS</t>
+  </si>
+  <si>
+    <t>PXT</t>
+  </si>
+  <si>
+    <t>QCG</t>
+  </si>
+  <si>
+    <t>QNP</t>
+  </si>
+  <si>
+    <t>QNS</t>
+  </si>
+  <si>
+    <t>QNW</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>SBL</t>
+  </si>
+  <si>
+    <t>SC5</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>SDU</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>SGC</t>
+  </si>
+  <si>
+    <t>SJD</t>
+  </si>
+  <si>
+    <t>SMB</t>
   </si>
   <si>
     <t>SMN</t>
@@ -496,3994 +1147,3343 @@
     <t>SMT</t>
   </si>
   <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>SZB</t>
-  </si>
-  <si>
-    <t>TA9</t>
-  </si>
-  <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>TBC</t>
-  </si>
-  <si>
-    <t>TBX</t>
-  </si>
-  <si>
-    <t>TCK</t>
-  </si>
-  <si>
-    <t>TDP</t>
-  </si>
-  <si>
-    <t>THG</t>
-  </si>
-  <si>
-    <t>TNC</t>
-  </si>
-  <si>
-    <t>TPP</t>
-  </si>
-  <si>
-    <t>TTS</t>
-  </si>
-  <si>
-    <t>TV4</t>
-  </si>
-  <si>
-    <t>TVT</t>
-  </si>
-  <si>
-    <t>TYA</t>
-  </si>
-  <si>
-    <t>UIC</t>
+    <t>SNZ</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>SVT</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>SZG</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>TDC</t>
+  </si>
+  <si>
+    <t>TDF</t>
+  </si>
+  <si>
+    <t>TDH</t>
+  </si>
+  <si>
+    <t>TDT</t>
+  </si>
+  <si>
+    <t>THN</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>TIX</t>
+  </si>
+  <si>
+    <t>TLG</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>TMG</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>TMX</t>
+  </si>
+  <si>
+    <t>TNG</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TT6</t>
+  </si>
+  <si>
+    <t>TTA</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>TTF</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>TV1</t>
+  </si>
+  <si>
+    <t>TVC</t>
+  </si>
+  <si>
+    <t>TVN</t>
+  </si>
+  <si>
+    <t>UXC</t>
+  </si>
+  <si>
+    <t>VAF</t>
+  </si>
+  <si>
+    <t>VBC</t>
+  </si>
+  <si>
+    <t>VC1</t>
   </si>
   <si>
     <t>VC2</t>
   </si>
   <si>
-    <t>VCG</t>
-  </si>
-  <si>
-    <t>VCP</t>
-  </si>
-  <si>
-    <t>VGC</t>
-  </si>
-  <si>
-    <t>VGI</t>
-  </si>
-  <si>
-    <t>VGR</t>
-  </si>
-  <si>
-    <t>VGS</t>
-  </si>
-  <si>
-    <t>VGT</t>
-  </si>
-  <si>
-    <t>VGV</t>
-  </si>
-  <si>
-    <t>VHL</t>
-  </si>
-  <si>
-    <t>VIF</t>
-  </si>
-  <si>
-    <t>VLB</t>
-  </si>
-  <si>
-    <t>VNB</t>
-  </si>
-  <si>
-    <t>VNT</t>
-  </si>
-  <si>
-    <t>VOS</t>
-  </si>
-  <si>
-    <t>VPD</t>
-  </si>
-  <si>
-    <t>VPG</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>VRC</t>
-  </si>
-  <si>
-    <t>VSC</t>
-  </si>
-  <si>
-    <t>VSM</t>
-  </si>
-  <si>
-    <t>VTQ</t>
-  </si>
-  <si>
-    <t>VTZ</t>
-  </si>
-  <si>
-    <t>VVS</t>
-  </si>
-  <si>
-    <t>XHC</t>
-  </si>
-  <si>
-    <t>XMP</t>
-  </si>
-  <si>
-    <t>YEG</t>
-  </si>
-  <si>
-    <t>AAH</t>
-  </si>
-  <si>
-    <t>AAM</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>ACL</t>
-  </si>
-  <si>
-    <t>ADG</t>
-  </si>
-  <si>
-    <t>AME</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>ASM</t>
-  </si>
-  <si>
-    <t>ASP</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>BCF</t>
-  </si>
-  <si>
-    <t>BCG</t>
-  </si>
-  <si>
-    <t>BDG</t>
-  </si>
-  <si>
-    <t>BFC</t>
-  </si>
-  <si>
-    <t>BGW</t>
-  </si>
-  <si>
-    <t>BHA</t>
-  </si>
-  <si>
-    <t>BKC</t>
-  </si>
-  <si>
-    <t>BPC</t>
-  </si>
-  <si>
-    <t>BRC</t>
-  </si>
-  <si>
-    <t>BSA</t>
-  </si>
-  <si>
-    <t>BSQ</t>
-  </si>
-  <si>
-    <t>BTH</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C69</t>
-  </si>
-  <si>
-    <t>CCA</t>
-  </si>
-  <si>
-    <t>CCI</t>
-  </si>
-  <si>
-    <t>CCR</t>
-  </si>
-  <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>CEN</t>
-  </si>
-  <si>
-    <t>CFV</t>
-  </si>
-  <si>
-    <t>CIG</t>
+    <t>VCM</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>VCX</t>
+  </si>
+  <si>
+    <t>VEA</t>
+  </si>
+  <si>
+    <t>VEC</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>VGG</t>
+  </si>
+  <si>
+    <t>VHC</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>VIT</t>
+  </si>
+  <si>
+    <t>VLG</t>
+  </si>
+  <si>
+    <t>VMD</t>
+  </si>
+  <si>
+    <t>VMS</t>
+  </si>
+  <si>
+    <t>VNA</t>
+  </si>
+  <si>
+    <t>VNF</t>
+  </si>
+  <si>
+    <t>VNL</t>
+  </si>
+  <si>
+    <t>VNY</t>
+  </si>
+  <si>
+    <t>VNZ</t>
+  </si>
+  <si>
+    <t>VPH</t>
+  </si>
+  <si>
+    <t>VSI</t>
+  </si>
+  <si>
+    <t>VTC</t>
+  </si>
+  <si>
+    <t>XPH</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>AFX</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>BNW</t>
+  </si>
+  <si>
+    <t>BRR</t>
+  </si>
+  <si>
+    <t>BSR</t>
+  </si>
+  <si>
+    <t>BT6</t>
+  </si>
+  <si>
+    <t>BTW</t>
+  </si>
+  <si>
+    <t>BWE</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C4G</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC4</t>
+  </si>
+  <si>
+    <t>CDO</t>
+  </si>
+  <si>
+    <t>CET</t>
+  </si>
+  <si>
+    <t>CHP</t>
   </si>
   <si>
     <t>CKD</t>
   </si>
   <si>
-    <t>CLW</t>
-  </si>
-  <si>
-    <t>CMF</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>CMV</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
-    <t>CPC</t>
-  </si>
-  <si>
-    <t>CQT</t>
-  </si>
-  <si>
-    <t>CSV</t>
-  </si>
-  <si>
-    <t>CTF</t>
-  </si>
-  <si>
-    <t>CTR</t>
-  </si>
-  <si>
-    <t>CTT</t>
+    <t>CKV</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>CMW</t>
+  </si>
+  <si>
+    <t>CMX</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>CQN</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>CTB</t>
   </si>
   <si>
     <t>CVN</t>
   </si>
   <si>
-    <t>CVT</t>
-  </si>
-  <si>
-    <t>DCF</t>
-  </si>
-  <si>
-    <t>DHB</t>
-  </si>
-  <si>
-    <t>DHC</t>
-  </si>
-  <si>
-    <t>DHP</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>DNH</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>DP2</t>
-  </si>
-  <si>
-    <t>DPG</t>
-  </si>
-  <si>
-    <t>DSD</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>DTI</t>
-  </si>
-  <si>
-    <t>DTT</t>
-  </si>
-  <si>
-    <t>DVN</t>
-  </si>
-  <si>
-    <t>DWC</t>
-  </si>
-  <si>
-    <t>DWS</t>
-  </si>
-  <si>
-    <t>DXV</t>
-  </si>
-  <si>
-    <t>EBS</t>
-  </si>
-  <si>
-    <t>ECI</t>
-  </si>
-  <si>
-    <t>EID</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>FDC</t>
-  </si>
-  <si>
-    <t>FOC</t>
-  </si>
-  <si>
-    <t>FOX</t>
-  </si>
-  <si>
-    <t>GCF</t>
-  </si>
-  <si>
-    <t>GDA</t>
-  </si>
-  <si>
-    <t>GDT</t>
-  </si>
-  <si>
-    <t>GEE</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>GMH</t>
-  </si>
-  <si>
-    <t>GMX</t>
-  </si>
-  <si>
-    <t>GTS</t>
-  </si>
-  <si>
-    <t>GVR</t>
-  </si>
-  <si>
-    <t>HAH</t>
-  </si>
-  <si>
-    <t>HAN</t>
-  </si>
-  <si>
-    <t>HAP</t>
-  </si>
-  <si>
-    <t>HAX</t>
-  </si>
-  <si>
-    <t>HBC</t>
-  </si>
-  <si>
-    <t>HCC</t>
-  </si>
-  <si>
-    <t>HDM</t>
-  </si>
-  <si>
-    <t>HIO</t>
-  </si>
-  <si>
-    <t>HLC</t>
-  </si>
-  <si>
-    <t>HNI</t>
-  </si>
-  <si>
-    <t>HOM</t>
-  </si>
-  <si>
-    <t>HPW</t>
-  </si>
-  <si>
-    <t>HSV</t>
-  </si>
-  <si>
-    <t>HUB</t>
-  </si>
-  <si>
-    <t>HUT</t>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>DBT</t>
+  </si>
+  <si>
+    <t>DDV</t>
+  </si>
+  <si>
+    <t>DGT</t>
+  </si>
+  <si>
+    <t>DHM</t>
+  </si>
+  <si>
+    <t>DMC</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>DP3</t>
+  </si>
+  <si>
+    <t>DRL</t>
+  </si>
+  <si>
+    <t>DSN</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>DTL</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>DVM</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>GDW</t>
+  </si>
+  <si>
+    <t>GKM</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>GTA</t>
+  </si>
+  <si>
+    <t>HAF</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>HID</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>HJC</t>
+  </si>
+  <si>
+    <t>HJS</t>
+  </si>
+  <si>
+    <t>HKT</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HNF</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>HPX</t>
+  </si>
+  <si>
+    <t>HSL</t>
+  </si>
+  <si>
+    <t>HSP</t>
+  </si>
+  <si>
+    <t>HTM</t>
+  </si>
+  <si>
+    <t>HTP</t>
+  </si>
+  <si>
+    <t>HVN</t>
   </si>
   <si>
     <t>HVX</t>
   </si>
   <si>
-    <t>ICF</t>
+    <t>HWS</t>
   </si>
   <si>
     <t>ICG</t>
   </si>
   <si>
-    <t>ICN</t>
-  </si>
-  <si>
-    <t>ICT</t>
-  </si>
-  <si>
-    <t>IDI</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
-    <t>KDH</t>
-  </si>
-  <si>
-    <t>KHG</t>
-  </si>
-  <si>
-    <t>KHP</t>
-  </si>
-  <si>
-    <t>KHW</t>
+    <t>IJC</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
+    <t>ISH</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>ITD</t>
+  </si>
+  <si>
+    <t>ITQ</t>
+  </si>
+  <si>
+    <t>KDC</t>
+  </si>
+  <si>
+    <t>KDM</t>
   </si>
   <si>
     <t>KKC</t>
   </si>
   <si>
-    <t>KOS</t>
-  </si>
-  <si>
-    <t>KSF</t>
-  </si>
-  <si>
-    <t>L40</t>
-  </si>
-  <si>
-    <t>LAF</t>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>KTC</t>
+  </si>
+  <si>
+    <t>KTL</t>
+  </si>
+  <si>
+    <t>L18</t>
   </si>
   <si>
     <t>LAI</t>
   </si>
   <si>
-    <t>LAW</t>
-  </si>
-  <si>
-    <t>LDP</t>
-  </si>
-  <si>
-    <t>LDW</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>MED</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>MKP</t>
-  </si>
-  <si>
-    <t>MNB</t>
-  </si>
-  <si>
-    <t>MSH</t>
-  </si>
-  <si>
-    <t>MSN</t>
-  </si>
-  <si>
-    <t>MTA</t>
-  </si>
-  <si>
-    <t>MTS</t>
-  </si>
-  <si>
-    <t>MVC</t>
-  </si>
-  <si>
-    <t>NBP</t>
-  </si>
-  <si>
-    <t>NBT</t>
-  </si>
-  <si>
-    <t>NCT</t>
-  </si>
-  <si>
-    <t>NDX</t>
-  </si>
-  <si>
-    <t>NED</t>
-  </si>
-  <si>
-    <t>NNC</t>
-  </si>
-  <si>
-    <t>NO1</t>
-  </si>
-  <si>
-    <t>NSC</t>
-  </si>
-  <si>
-    <t>NSH</t>
-  </si>
-  <si>
-    <t>NT2</t>
-  </si>
-  <si>
-    <t>NTP</t>
-  </si>
-  <si>
-    <t>OCH</t>
-  </si>
-  <si>
-    <t>OGC</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>PAS</t>
-  </si>
-  <si>
-    <t>PBT</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PEG</t>
+    <t>LBM</t>
+  </si>
+  <si>
+    <t>LHC</t>
+  </si>
+  <si>
+    <t>LSG</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>MGR</t>
+  </si>
+  <si>
+    <t>MH3</t>
+  </si>
+  <si>
+    <t>MHC</t>
+  </si>
+  <si>
+    <t>MPT</t>
+  </si>
+  <si>
+    <t>MWG</t>
+  </si>
+  <si>
+    <t>NAF</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>NBB</t>
+  </si>
+  <si>
+    <t>NDT</t>
+  </si>
+  <si>
+    <t>NDW</t>
+  </si>
+  <si>
+    <t>NLG</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>NQN</t>
+  </si>
+  <si>
+    <t>NQT</t>
+  </si>
+  <si>
+    <t>NTC</t>
+  </si>
+  <si>
+    <t>NTT</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>PCE</t>
   </si>
   <si>
     <t>PEN</t>
   </si>
   <si>
-    <t>PET</t>
-  </si>
-  <si>
-    <t>PGD</t>
-  </si>
-  <si>
-    <t>PGN</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>PIA</t>
+    <t>PFL</t>
+  </si>
+  <si>
+    <t>PGS</t>
+  </si>
+  <si>
+    <t>PGV</t>
+  </si>
+  <si>
+    <t>PIS</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>PJC</t>
   </si>
   <si>
     <t>PJT</t>
   </si>
   <si>
-    <t>PMS</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>POV</t>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>PMG</t>
   </si>
   <si>
     <t>POW</t>
   </si>
   <si>
-    <t>PPY</t>
-  </si>
-  <si>
-    <t>PRC</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>PTV</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>PXS</t>
-  </si>
-  <si>
-    <t>PXT</t>
-  </si>
-  <si>
-    <t>QCG</t>
-  </si>
-  <si>
-    <t>QNP</t>
-  </si>
-  <si>
-    <t>QNS</t>
-  </si>
-  <si>
-    <t>QNW</t>
-  </si>
-  <si>
-    <t>RIC</t>
-  </si>
-  <si>
-    <t>SBB</t>
-  </si>
-  <si>
-    <t>SBL</t>
-  </si>
-  <si>
-    <t>SC5</t>
-  </si>
-  <si>
-    <t>SCG</t>
-  </si>
-  <si>
-    <t>SD5</t>
-  </si>
-  <si>
-    <t>SDU</t>
-  </si>
-  <si>
-    <t>SED</t>
-  </si>
-  <si>
-    <t>SGC</t>
-  </si>
-  <si>
-    <t>SJD</t>
-  </si>
-  <si>
-    <t>SMB</t>
-  </si>
-  <si>
-    <t>SNZ</t>
-  </si>
-  <si>
-    <t>SRA</t>
-  </si>
-  <si>
-    <t>STH</t>
-  </si>
-  <si>
-    <t>SVT</t>
-  </si>
-  <si>
-    <t>SWC</t>
-  </si>
-  <si>
-    <t>SZE</t>
-  </si>
-  <si>
-    <t>SZG</t>
-  </si>
-  <si>
-    <t>TAR</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>TCM</t>
-  </si>
-  <si>
-    <t>TDC</t>
-  </si>
-  <si>
-    <t>TDF</t>
-  </si>
-  <si>
-    <t>TDH</t>
-  </si>
-  <si>
-    <t>TDT</t>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>PSN</t>
+  </si>
+  <si>
+    <t>PTB</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
+    <t>PTX</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>PVV</t>
+  </si>
+  <si>
+    <t>PVX</t>
+  </si>
+  <si>
+    <t>PVY</t>
+  </si>
+  <si>
+    <t>PWS</t>
+  </si>
+  <si>
+    <t>PXI</t>
+  </si>
+  <si>
+    <t>QPH</t>
+  </si>
+  <si>
+    <t>RAL</t>
+  </si>
+  <si>
+    <t>RYG</t>
+  </si>
+  <si>
+    <t>S4A</t>
+  </si>
+  <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>SBG</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>SD6</t>
+  </si>
+  <si>
+    <t>SD9</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>SFN</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>SJF</t>
+  </si>
+  <si>
+    <t>SKH</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>SVG</t>
+  </si>
+  <si>
+    <t>SZL</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>TCR</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>TGG</t>
   </si>
   <si>
     <t>THB</t>
   </si>
   <si>
-    <t>THN</t>
-  </si>
-  <si>
-    <t>TIP</t>
-  </si>
-  <si>
-    <t>TIS</t>
-  </si>
-  <si>
-    <t>TIX</t>
-  </si>
-  <si>
-    <t>TLG</t>
-  </si>
-  <si>
-    <t>TMC</t>
-  </si>
-  <si>
-    <t>TMG</t>
-  </si>
-  <si>
-    <t>TMX</t>
-  </si>
-  <si>
-    <t>TNG</t>
-  </si>
-  <si>
-    <t>TSA</t>
-  </si>
-  <si>
-    <t>TSC</t>
-  </si>
-  <si>
-    <t>TT6</t>
-  </si>
-  <si>
-    <t>TTA</t>
-  </si>
-  <si>
-    <t>TTD</t>
-  </si>
-  <si>
-    <t>TTF</t>
-  </si>
-  <si>
-    <t>TTL</t>
-  </si>
-  <si>
-    <t>TTN</t>
-  </si>
-  <si>
-    <t>TV1</t>
-  </si>
-  <si>
-    <t>TVC</t>
-  </si>
-  <si>
-    <t>TVN</t>
-  </si>
-  <si>
-    <t>UXC</t>
-  </si>
-  <si>
-    <t>VAF</t>
-  </si>
-  <si>
-    <t>VBC</t>
-  </si>
-  <si>
-    <t>VC1</t>
-  </si>
-  <si>
-    <t>VCM</t>
-  </si>
-  <si>
-    <t>VCS</t>
-  </si>
-  <si>
-    <t>VCX</t>
+    <t>THM</t>
+  </si>
+  <si>
+    <t>THP</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>TLD</t>
+  </si>
+  <si>
+    <t>TLH</t>
+  </si>
+  <si>
+    <t>TNB</t>
+  </si>
+  <si>
+    <t>TNI</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>TSJ</t>
+  </si>
+  <si>
+    <t>TTB</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>TVD</t>
+  </si>
+  <si>
+    <t>TXM</t>
+  </si>
+  <si>
+    <t>UDJ</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>VC3</t>
+  </si>
+  <si>
+    <t>VCA</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>VCW</t>
+  </si>
+  <si>
+    <t>VDP</t>
+  </si>
+  <si>
+    <t>VE1</t>
   </si>
   <si>
     <t>VE4</t>
   </si>
   <si>
-    <t>VEA</t>
-  </si>
-  <si>
-    <t>VEC</t>
-  </si>
-  <si>
-    <t>VET</t>
-  </si>
-  <si>
-    <t>VGG</t>
-  </si>
-  <si>
-    <t>VHC</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>VIT</t>
-  </si>
-  <si>
-    <t>VLG</t>
-  </si>
-  <si>
-    <t>VMD</t>
-  </si>
-  <si>
-    <t>VMS</t>
-  </si>
-  <si>
-    <t>VNA</t>
-  </si>
-  <si>
-    <t>VNF</t>
-  </si>
-  <si>
-    <t>VNL</t>
-  </si>
-  <si>
-    <t>VNY</t>
-  </si>
-  <si>
-    <t>VNZ</t>
-  </si>
-  <si>
-    <t>VPH</t>
+    <t>VGP</t>
+  </si>
+  <si>
+    <t>VHM</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>VNC</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>VSF</t>
+  </si>
+  <si>
+    <t>VSN</t>
   </si>
   <si>
     <t>VTB</t>
   </si>
   <si>
-    <t>VTC</t>
-  </si>
-  <si>
-    <t>XPH</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>ADS</t>
-  </si>
-  <si>
-    <t>AFX</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>ASG</t>
-  </si>
-  <si>
-    <t>AVC</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>BCM</t>
-  </si>
-  <si>
-    <t>BNW</t>
-  </si>
-  <si>
-    <t>BRR</t>
+    <t>VTH</t>
+  </si>
+  <si>
+    <t>VTJ</t>
+  </si>
+  <si>
+    <t>VTO</t>
+  </si>
+  <si>
+    <t>VTP</t>
+  </si>
+  <si>
+    <t>VTV</t>
+  </si>
+  <si>
+    <t>WCS</t>
+  </si>
+  <si>
+    <t>WSB</t>
+  </si>
+  <si>
+    <t>XDH</t>
+  </si>
+  <si>
+    <t>YBM</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>ACV</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>AG1</t>
+  </si>
+  <si>
+    <t>AGF</t>
+  </si>
+  <si>
+    <t>AGX</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>BBH</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>BDW</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>BHG</t>
+  </si>
+  <si>
+    <t>BHK</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>BLN</t>
+  </si>
+  <si>
+    <t>BMJ</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>BQB</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>BSH</t>
   </si>
   <si>
     <t>BSP</t>
   </si>
   <si>
-    <t>BSR</t>
-  </si>
-  <si>
-    <t>BT6</t>
-  </si>
-  <si>
-    <t>BTW</t>
-  </si>
-  <si>
-    <t>BWE</t>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>BTD</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>BVG</t>
+  </si>
+  <si>
+    <t>BWS</t>
   </si>
   <si>
     <t>BXH</t>
   </si>
   <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C4G</t>
-  </si>
-  <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>CC4</t>
-  </si>
-  <si>
-    <t>CDO</t>
-  </si>
-  <si>
-    <t>CET</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>CKV</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>CMW</t>
-  </si>
-  <si>
-    <t>CMX</t>
-  </si>
-  <si>
-    <t>CNT</t>
-  </si>
-  <si>
-    <t>CQN</t>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CBI</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>CCV</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>CH5</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>CJC</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>CLH</t>
+  </si>
+  <si>
+    <t>CLL</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>CMK</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>CNN</t>
   </si>
   <si>
     <t>CRC</t>
   </si>
   <si>
-    <t>CRV</t>
-  </si>
-  <si>
     <t>CSC</t>
   </si>
   <si>
-    <t>CSM</t>
-  </si>
-  <si>
-    <t>CTB</t>
-  </si>
-  <si>
-    <t>DBC</t>
-  </si>
-  <si>
-    <t>DBT</t>
-  </si>
-  <si>
-    <t>DDV</t>
-  </si>
-  <si>
-    <t>DGT</t>
-  </si>
-  <si>
-    <t>DHM</t>
-  </si>
-  <si>
-    <t>DMC</t>
-  </si>
-  <si>
-    <t>DNN</t>
-  </si>
-  <si>
-    <t>DP3</t>
-  </si>
-  <si>
-    <t>DRL</t>
-  </si>
-  <si>
-    <t>DSN</t>
-  </si>
-  <si>
-    <t>DTC</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>DTL</t>
-  </si>
-  <si>
-    <t>DTP</t>
-  </si>
-  <si>
-    <t>DVM</t>
-  </si>
-  <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>FTM</t>
-  </si>
-  <si>
-    <t>GDW</t>
-  </si>
-  <si>
-    <t>GKM</t>
-  </si>
-  <si>
-    <t>GMD</t>
-  </si>
-  <si>
-    <t>GTA</t>
-  </si>
-  <si>
-    <t>HAF</t>
-  </si>
-  <si>
-    <t>HAS</t>
-  </si>
-  <si>
-    <t>HHS</t>
-  </si>
-  <si>
-    <t>HID</t>
-  </si>
-  <si>
-    <t>HII</t>
-  </si>
-  <si>
-    <t>HJC</t>
-  </si>
-  <si>
-    <t>HJS</t>
-  </si>
-  <si>
-    <t>HKT</t>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>CTW</t>
+  </si>
+  <si>
+    <t>DAE</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>DBD</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>DCG</t>
+  </si>
+  <si>
+    <t>DCH</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>DDB</t>
+  </si>
+  <si>
+    <t>DDG</t>
+  </si>
+  <si>
+    <t>DDN</t>
+  </si>
+  <si>
+    <t>DFC</t>
+  </si>
+  <si>
+    <t>DHD</t>
+  </si>
+  <si>
+    <t>DHG</t>
+  </si>
+  <si>
+    <t>DHN</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>DM7</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>DNE</t>
+  </si>
+  <si>
+    <t>DNW</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>DRH</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>DTH</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>DVW</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>EME</t>
+  </si>
+  <si>
+    <t>EMG</t>
+  </si>
+  <si>
+    <t>FBC</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FCM</t>
+  </si>
+  <si>
+    <t>FHS</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>FRT</t>
+  </si>
+  <si>
+    <t>FSO</t>
+  </si>
+  <si>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>GEG</t>
+  </si>
+  <si>
+    <t>GH3</t>
+  </si>
+  <si>
+    <t>GHC</t>
+  </si>
+  <si>
+    <t>GMA</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>GPC</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>GVT</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HC3</t>
+  </si>
+  <si>
+    <t>HCB</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>HDC</t>
+  </si>
+  <si>
+    <t>HDG</t>
+  </si>
+  <si>
+    <t>HDP</t>
+  </si>
+  <si>
+    <t>HDW</t>
+  </si>
+  <si>
+    <t>HEP</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>HFC</t>
+  </si>
+  <si>
+    <t>HGT</t>
+  </si>
+  <si>
+    <t>HHN</t>
+  </si>
+  <si>
+    <t>HHP</t>
+  </si>
+  <si>
+    <t>HHV</t>
+  </si>
+  <si>
+    <t>HLB</t>
   </si>
   <si>
     <t>HLD</t>
   </si>
   <si>
-    <t>HND</t>
-  </si>
-  <si>
-    <t>HNF</t>
-  </si>
-  <si>
-    <t>HPG</t>
-  </si>
-  <si>
-    <t>HPX</t>
-  </si>
-  <si>
-    <t>HSL</t>
-  </si>
-  <si>
-    <t>HSP</t>
-  </si>
-  <si>
-    <t>HTM</t>
-  </si>
-  <si>
-    <t>HTP</t>
-  </si>
-  <si>
-    <t>HVN</t>
-  </si>
-  <si>
-    <t>HWS</t>
-  </si>
-  <si>
-    <t>IJC</t>
-  </si>
-  <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>IRC</t>
-  </si>
-  <si>
-    <t>ISH</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>ITD</t>
-  </si>
-  <si>
-    <t>ITQ</t>
-  </si>
-  <si>
-    <t>KDC</t>
-  </si>
-  <si>
-    <t>KDM</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>KTC</t>
-  </si>
-  <si>
-    <t>KTL</t>
-  </si>
-  <si>
-    <t>L18</t>
-  </si>
-  <si>
-    <t>LBM</t>
-  </si>
-  <si>
-    <t>LHC</t>
-  </si>
-  <si>
-    <t>LSG</t>
-  </si>
-  <si>
-    <t>MCC</t>
-  </si>
-  <si>
-    <t>MCF</t>
-  </si>
-  <si>
-    <t>MCG</t>
-  </si>
-  <si>
-    <t>MCM</t>
-  </si>
-  <si>
-    <t>MDF</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>MGR</t>
-  </si>
-  <si>
-    <t>MH3</t>
-  </si>
-  <si>
-    <t>MHC</t>
-  </si>
-  <si>
-    <t>MPT</t>
-  </si>
-  <si>
-    <t>MWG</t>
-  </si>
-  <si>
-    <t>NAF</t>
-  </si>
-  <si>
-    <t>NAP</t>
-  </si>
-  <si>
-    <t>NAV</t>
-  </si>
-  <si>
-    <t>NBB</t>
-  </si>
-  <si>
-    <t>NDT</t>
-  </si>
-  <si>
-    <t>NDW</t>
-  </si>
-  <si>
-    <t>NLG</t>
-  </si>
-  <si>
-    <t>NOS</t>
-  </si>
-  <si>
-    <t>NQN</t>
-  </si>
-  <si>
-    <t>NQT</t>
-  </si>
-  <si>
-    <t>NTC</t>
-  </si>
-  <si>
-    <t>NTT</t>
-  </si>
-  <si>
-    <t>NVL</t>
-  </si>
-  <si>
-    <t>PCE</t>
-  </si>
-  <si>
-    <t>PFL</t>
-  </si>
-  <si>
-    <t>PGS</t>
-  </si>
-  <si>
-    <t>PGV</t>
+    <t>HLO</t>
+  </si>
+  <si>
+    <t>HLS</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>HMH</t>
+  </si>
+  <si>
+    <t>HMS</t>
+  </si>
+  <si>
+    <t>HNB</t>
+  </si>
+  <si>
+    <t>HNG</t>
+  </si>
+  <si>
+    <t>HNP</t>
+  </si>
+  <si>
+    <t>HNR</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>HPB</t>
+  </si>
+  <si>
+    <t>HPH</t>
+  </si>
+  <si>
+    <t>HSG</t>
+  </si>
+  <si>
+    <t>HTC</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HTL</t>
+  </si>
+  <si>
+    <t>HVA</t>
+  </si>
+  <si>
+    <t>IDV</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>JOS</t>
+  </si>
+  <si>
+    <t>KCB</t>
+  </si>
+  <si>
+    <t>KCE</t>
+  </si>
+  <si>
+    <t>KGM</t>
+  </si>
+  <si>
+    <t>KHD</t>
+  </si>
+  <si>
+    <t>KHS</t>
+  </si>
+  <si>
+    <t>KIP</t>
+  </si>
+  <si>
+    <t>KPF</t>
+  </si>
+  <si>
+    <t>KSD</t>
+  </si>
+  <si>
+    <t>KST</t>
+  </si>
+  <si>
+    <t>KVC</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>LBE</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>LGC</t>
+  </si>
+  <si>
+    <t>LHG</t>
+  </si>
+  <si>
+    <t>LKW</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>LM8</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>LNC</t>
+  </si>
+  <si>
+    <t>LO5</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MBG</t>
+  </si>
+  <si>
+    <t>MCH</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MEF</t>
+  </si>
+  <si>
+    <t>MGG</t>
+  </si>
+  <si>
+    <t>MIE</t>
+  </si>
+  <si>
+    <t>MKV</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>MPY</t>
+  </si>
+  <si>
+    <t>MQB</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>MTG</t>
+  </si>
+  <si>
+    <t>MTH</t>
+  </si>
+  <si>
+    <t>MVB</t>
+  </si>
+  <si>
+    <t>NAC</t>
+  </si>
+  <si>
+    <t>NAG</t>
+  </si>
+  <si>
+    <t>NDP</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>NHA</t>
+  </si>
+  <si>
+    <t>NHT</t>
+  </si>
+  <si>
+    <t>NJC</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>NQB</t>
+  </si>
+  <si>
+    <t>NS2</t>
+  </si>
+  <si>
+    <t>NTF</t>
+  </si>
+  <si>
+    <t>NTH</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>NTW</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>NVP</t>
+  </si>
+  <si>
+    <t>NVT</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>PCC</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>PDV</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>PEQ</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>PHN</t>
   </si>
   <si>
     <t>PHR</t>
   </si>
   <si>
-    <t>PIS</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>PJC</t>
-  </si>
-  <si>
-    <t>PLC</t>
-  </si>
-  <si>
-    <t>PLP</t>
-  </si>
-  <si>
-    <t>PMG</t>
-  </si>
-  <si>
-    <t>PPC</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t>PPS</t>
-  </si>
-  <si>
-    <t>PSB</t>
-  </si>
-  <si>
-    <t>PSN</t>
-  </si>
-  <si>
-    <t>PTB</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>PTD</t>
-  </si>
-  <si>
-    <t>PTE</t>
-  </si>
-  <si>
-    <t>PTX</t>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>PLX</t>
+  </si>
+  <si>
+    <t>PMB</t>
+  </si>
+  <si>
+    <t>PMJ</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>PMW</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>PPH</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>PSH</t>
+  </si>
+  <si>
+    <t>PSL</t>
+  </si>
+  <si>
+    <t>PTG</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>PTO</t>
+  </si>
+  <si>
+    <t>PTP</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>PVA</t>
   </si>
   <si>
     <t>PVC</t>
   </si>
   <si>
-    <t>PVT</t>
-  </si>
-  <si>
-    <t>PVV</t>
-  </si>
-  <si>
-    <t>PVX</t>
-  </si>
-  <si>
-    <t>PVY</t>
-  </si>
-  <si>
-    <t>PWS</t>
-  </si>
-  <si>
-    <t>PXI</t>
-  </si>
-  <si>
-    <t>QPH</t>
-  </si>
-  <si>
-    <t>RAL</t>
-  </si>
-  <si>
-    <t>RYG</t>
-  </si>
-  <si>
-    <t>S4A</t>
-  </si>
-  <si>
-    <t>S99</t>
-  </si>
-  <si>
-    <t>SBG</t>
-  </si>
-  <si>
-    <t>SCI</t>
+    <t>PVE</t>
+  </si>
+  <si>
+    <t>PVH</t>
+  </si>
+  <si>
+    <t>PVL</t>
+  </si>
+  <si>
+    <t>PVM</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>PWA</t>
+  </si>
+  <si>
+    <t>QHD</t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t>QNU</t>
+  </si>
+  <si>
+    <t>QTC</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>REE</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>SAV</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>SCD</t>
   </si>
   <si>
     <t>SCJ</t>
   </si>
   <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>SCS</t>
-  </si>
-  <si>
-    <t>SD6</t>
-  </si>
-  <si>
-    <t>SD9</t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>SFC</t>
-  </si>
-  <si>
-    <t>SFI</t>
-  </si>
-  <si>
-    <t>SFN</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>SGR</t>
-  </si>
-  <si>
-    <t>SGS</t>
-  </si>
-  <si>
-    <t>SHE</t>
-  </si>
-  <si>
-    <t>SJF</t>
-  </si>
-  <si>
-    <t>SKH</t>
-  </si>
-  <si>
-    <t>SLS</t>
-  </si>
-  <si>
-    <t>SPC</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>SSM</t>
-  </si>
-  <si>
-    <t>SVG</t>
-  </si>
-  <si>
-    <t>SZL</t>
-  </si>
-  <si>
-    <t>TCL</t>
-  </si>
-  <si>
-    <t>TCR</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>TET</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>THM</t>
-  </si>
-  <si>
-    <t>THP</t>
-  </si>
-  <si>
-    <t>THS</t>
+    <t>SCY</t>
+  </si>
+  <si>
+    <t>SD4</t>
+  </si>
+  <si>
+    <t>SDD</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>SDK</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SDV</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>SGN</t>
+  </si>
+  <si>
+    <t>SGT</t>
+  </si>
+  <si>
+    <t>SHC</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>SKG</t>
+  </si>
+  <si>
+    <t>SKN</t>
+  </si>
+  <si>
+    <t>SKV</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>STC</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>STW</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>SVH</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>SZC</t>
+  </si>
+  <si>
+    <t>TA6</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TB8</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>TCO</t>
+  </si>
+  <si>
+    <t>TCW</t>
+  </si>
+  <si>
+    <t>TDW</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>TGP</t>
   </si>
   <si>
     <t>THT</t>
   </si>
   <si>
-    <t>TLD</t>
-  </si>
-  <si>
-    <t>TLH</t>
-  </si>
-  <si>
-    <t>TMP</t>
-  </si>
-  <si>
-    <t>TNB</t>
-  </si>
-  <si>
-    <t>TNI</t>
+    <t>THW</t>
+  </si>
+  <si>
+    <t>TJC</t>
+  </si>
+  <si>
+    <t>TKU</t>
+  </si>
+  <si>
+    <t>TL4</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>TMW</t>
+  </si>
+  <si>
+    <t>TNA</t>
+  </si>
+  <si>
+    <t>TNS</t>
   </si>
   <si>
     <t>TOS</t>
   </si>
   <si>
-    <t>TOT</t>
+    <t>TOW</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>TQN</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>TRC</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>TS3</t>
   </si>
   <si>
     <t>TSB</t>
   </si>
   <si>
-    <t>TSJ</t>
-  </si>
-  <si>
-    <t>TTB</t>
-  </si>
-  <si>
-    <t>TTH</t>
-  </si>
-  <si>
-    <t>TVD</t>
-  </si>
-  <si>
-    <t>TXM</t>
-  </si>
-  <si>
-    <t>UDJ</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>V12</t>
-  </si>
-  <si>
-    <t>VC3</t>
-  </si>
-  <si>
-    <t>VCA</t>
-  </si>
-  <si>
-    <t>VCC</t>
-  </si>
-  <si>
-    <t>VCW</t>
-  </si>
-  <si>
-    <t>VDP</t>
-  </si>
-  <si>
-    <t>VE1</t>
-  </si>
-  <si>
-    <t>VHM</t>
+    <t>TSD</t>
+  </si>
+  <si>
+    <t>TSG</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>TV3</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>TW3</t>
+  </si>
+  <si>
+    <t>UDC</t>
+  </si>
+  <si>
+    <t>UDL</t>
+  </si>
+  <si>
+    <t>UPH</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>VAV</t>
+  </si>
+  <si>
+    <t>VC7</t>
+  </si>
+  <si>
+    <t>VC9</t>
+  </si>
+  <si>
+    <t>VCR</t>
+  </si>
+  <si>
+    <t>VE2</t>
+  </si>
+  <si>
+    <t>VE3</t>
+  </si>
+  <si>
+    <t>VE8</t>
+  </si>
+  <si>
+    <t>VFG</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>VHE</t>
+  </si>
+  <si>
+    <t>VIH</t>
   </si>
   <si>
     <t>VIW</t>
   </si>
   <si>
-    <t>VMC</t>
-  </si>
-  <si>
-    <t>VNC</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>VSF</t>
-  </si>
-  <si>
-    <t>VSI</t>
-  </si>
-  <si>
-    <t>VSN</t>
-  </si>
-  <si>
-    <t>VTH</t>
-  </si>
-  <si>
-    <t>VTJ</t>
-  </si>
-  <si>
-    <t>VTO</t>
-  </si>
-  <si>
-    <t>VTP</t>
-  </si>
-  <si>
-    <t>VTV</t>
+    <t>VJC</t>
+  </si>
+  <si>
+    <t>VLA</t>
+  </si>
+  <si>
+    <t>VLC</t>
+  </si>
+  <si>
+    <t>VLW</t>
+  </si>
+  <si>
+    <t>VMK</t>
+  </si>
+  <si>
+    <t>VMT</t>
+  </si>
+  <si>
+    <t>VNH</t>
+  </si>
+  <si>
+    <t>VNI</t>
+  </si>
+  <si>
+    <t>VNP</t>
+  </si>
+  <si>
+    <t>VPI</t>
+  </si>
+  <si>
+    <t>VSE</t>
+  </si>
+  <si>
+    <t>VSH</t>
+  </si>
+  <si>
+    <t>VTG</t>
   </si>
   <si>
     <t>VTX</t>
   </si>
   <si>
-    <t>WCS</t>
-  </si>
-  <si>
-    <t>WSB</t>
-  </si>
-  <si>
-    <t>XDH</t>
-  </si>
-  <si>
-    <t>YBM</t>
+    <t>VUG</t>
+  </si>
+  <si>
+    <t>VVN</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>XMC</t>
+  </si>
+  <si>
+    <t>XMD</t>
+  </si>
+  <si>
+    <t>YTC</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>AAT</t>
   </si>
   <si>
     <t>AAV</t>
   </si>
   <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>ACV</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>AG1</t>
-  </si>
-  <si>
-    <t>AGF</t>
-  </si>
-  <si>
-    <t>AGX</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>ATB</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>BBC</t>
-  </si>
-  <si>
-    <t>BBH</t>
-  </si>
-  <si>
-    <t>BBT</t>
-  </si>
-  <si>
-    <t>BCP</t>
-  </si>
-  <si>
-    <t>BDW</t>
-  </si>
-  <si>
-    <t>BED</t>
-  </si>
-  <si>
-    <t>BGE</t>
-  </si>
-  <si>
-    <t>BHG</t>
-  </si>
-  <si>
-    <t>BHK</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>BLN</t>
-  </si>
-  <si>
-    <t>BMJ</t>
-  </si>
-  <si>
-    <t>BMP</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>BQB</t>
-  </si>
-  <si>
-    <t>BSD</t>
-  </si>
-  <si>
-    <t>BSH</t>
-  </si>
-  <si>
-    <t>BST</t>
-  </si>
-  <si>
-    <t>BT1</t>
-  </si>
-  <si>
-    <t>BTD</t>
-  </si>
-  <si>
-    <t>BTU</t>
-  </si>
-  <si>
-    <t>BVG</t>
-  </si>
-  <si>
-    <t>BWS</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>CBI</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>CCP</t>
-  </si>
-  <si>
-    <t>CCV</t>
-  </si>
-  <si>
-    <t>CDP</t>
-  </si>
-  <si>
-    <t>CH5</t>
-  </si>
-  <si>
-    <t>CHC</t>
-  </si>
-  <si>
-    <t>CJC</t>
-  </si>
-  <si>
-    <t>CLC</t>
-  </si>
-  <si>
-    <t>CLH</t>
-  </si>
-  <si>
-    <t>CLL</t>
-  </si>
-  <si>
-    <t>CMD</t>
-  </si>
-  <si>
-    <t>CMK</t>
-  </si>
-  <si>
-    <t>CMP</t>
-  </si>
-  <si>
-    <t>CNG</t>
-  </si>
-  <si>
-    <t>CNN</t>
+    <t>AGP</t>
+  </si>
+  <si>
+    <t>ALV</t>
+  </si>
+  <si>
+    <t>AMV</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>BBM</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>BCV</t>
+  </si>
+  <si>
+    <t>BDB</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>BLF</t>
+  </si>
+  <si>
+    <t>BMG</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>BTB</t>
+  </si>
+  <si>
+    <t>BTP</t>
+  </si>
+  <si>
+    <t>BVL</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>CGV</t>
+  </si>
+  <si>
+    <t>CI5</t>
+  </si>
+  <si>
+    <t>CIA</t>
+  </si>
+  <si>
+    <t>CKG</t>
+  </si>
+  <si>
+    <t>CMI</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
   <si>
     <t>CPI</t>
   </si>
   <si>
-    <t>CST</t>
-  </si>
-  <si>
-    <t>CTW</t>
-  </si>
-  <si>
-    <t>DAE</t>
-  </si>
-  <si>
-    <t>DAT</t>
-  </si>
-  <si>
-    <t>DBD</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>DC2</t>
-  </si>
-  <si>
-    <t>DCG</t>
-  </si>
-  <si>
-    <t>DCH</t>
-  </si>
-  <si>
-    <t>DCR</t>
-  </si>
-  <si>
-    <t>DDB</t>
-  </si>
-  <si>
-    <t>DDG</t>
-  </si>
-  <si>
-    <t>DDN</t>
-  </si>
-  <si>
-    <t>DFC</t>
-  </si>
-  <si>
-    <t>DHD</t>
-  </si>
-  <si>
-    <t>DHG</t>
-  </si>
-  <si>
-    <t>DHN</t>
-  </si>
-  <si>
-    <t>DID</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>DM7</t>
-  </si>
-  <si>
-    <t>DND</t>
-  </si>
-  <si>
-    <t>DNE</t>
-  </si>
-  <si>
-    <t>DNW</t>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>DBM</t>
+  </si>
+  <si>
+    <t>DC4</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>DDM</t>
+  </si>
+  <si>
+    <t>DGC</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>DIH</t>
+  </si>
+  <si>
+    <t>DKW</t>
+  </si>
+  <si>
+    <t>DLD</t>
+  </si>
+  <si>
+    <t>DLT</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>DNM</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>DOP</t>
   </si>
   <si>
     <t>DP1</t>
   </si>
   <si>
-    <t>DPR</t>
-  </si>
-  <si>
-    <t>DRC</t>
-  </si>
-  <si>
-    <t>DRH</t>
-  </si>
-  <si>
-    <t>DRI</t>
+    <t>DPC</t>
+  </si>
+  <si>
+    <t>DPP</t>
   </si>
   <si>
     <t>DSG</t>
   </si>
   <si>
-    <t>DTH</t>
-  </si>
-  <si>
-    <t>DVC</t>
-  </si>
-  <si>
-    <t>DVW</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>EIN</t>
-  </si>
-  <si>
-    <t>EME</t>
-  </si>
-  <si>
-    <t>EMG</t>
-  </si>
-  <si>
-    <t>FBC</t>
-  </si>
-  <si>
-    <t>FCC</t>
-  </si>
-  <si>
-    <t>FCM</t>
-  </si>
-  <si>
-    <t>FHS</t>
-  </si>
-  <si>
-    <t>FIT</t>
-  </si>
-  <si>
-    <t>FRC</t>
-  </si>
-  <si>
-    <t>FRT</t>
-  </si>
-  <si>
-    <t>FSO</t>
-  </si>
-  <si>
-    <t>FT1</t>
-  </si>
-  <si>
-    <t>G36</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
-    <t>GEG</t>
-  </si>
-  <si>
-    <t>GH3</t>
-  </si>
-  <si>
-    <t>GHC</t>
-  </si>
-  <si>
-    <t>GMA</t>
+    <t>DUS</t>
+  </si>
+  <si>
+    <t>DXL</t>
+  </si>
+  <si>
+    <t>DXP</t>
+  </si>
+  <si>
+    <t>DZM</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>EVG</t>
+  </si>
+  <si>
+    <t>FGL</t>
+  </si>
+  <si>
+    <t>FHN</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>GLT</t>
   </si>
   <si>
     <t>GMC</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>GPC</t>
-  </si>
-  <si>
-    <t>GSP</t>
-  </si>
-  <si>
-    <t>GVT</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HC3</t>
-  </si>
-  <si>
-    <t>HCB</t>
-  </si>
-  <si>
-    <t>HD2</t>
-  </si>
-  <si>
-    <t>HDC</t>
-  </si>
-  <si>
-    <t>HDG</t>
-  </si>
-  <si>
-    <t>HDP</t>
-  </si>
-  <si>
-    <t>HDW</t>
-  </si>
-  <si>
-    <t>HEP</t>
-  </si>
-  <si>
-    <t>HES</t>
-  </si>
-  <si>
-    <t>HFC</t>
-  </si>
-  <si>
-    <t>HHN</t>
-  </si>
-  <si>
-    <t>HHP</t>
-  </si>
-  <si>
-    <t>HHV</t>
-  </si>
-  <si>
-    <t>HLB</t>
-  </si>
-  <si>
-    <t>HLO</t>
-  </si>
-  <si>
-    <t>HLS</t>
-  </si>
-  <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>HMS</t>
-  </si>
-  <si>
-    <t>HNB</t>
-  </si>
-  <si>
-    <t>HNG</t>
-  </si>
-  <si>
-    <t>HNP</t>
-  </si>
-  <si>
-    <t>HNR</t>
-  </si>
-  <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>HPB</t>
-  </si>
-  <si>
-    <t>HPH</t>
-  </si>
-  <si>
-    <t>HSG</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>HTL</t>
-  </si>
-  <si>
-    <t>HVA</t>
-  </si>
-  <si>
-    <t>IDV</t>
-  </si>
-  <si>
-    <t>ING</t>
-  </si>
-  <si>
-    <t>ITS</t>
-  </si>
-  <si>
-    <t>JOS</t>
-  </si>
-  <si>
-    <t>KCB</t>
-  </si>
-  <si>
-    <t>KCE</t>
-  </si>
-  <si>
-    <t>KGM</t>
-  </si>
-  <si>
-    <t>KHD</t>
-  </si>
-  <si>
-    <t>KHS</t>
-  </si>
-  <si>
-    <t>KIP</t>
-  </si>
-  <si>
-    <t>KPF</t>
-  </si>
-  <si>
-    <t>KSD</t>
-  </si>
-  <si>
-    <t>KST</t>
-  </si>
-  <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>LBE</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>LGC</t>
-  </si>
-  <si>
-    <t>LHG</t>
-  </si>
-  <si>
-    <t>LKW</t>
-  </si>
-  <si>
-    <t>LLM</t>
-  </si>
-  <si>
-    <t>LM8</t>
-  </si>
-  <si>
-    <t>LMC</t>
-  </si>
-  <si>
-    <t>LNC</t>
-  </si>
-  <si>
-    <t>LO5</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>MBG</t>
-  </si>
-  <si>
-    <t>MCH</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>MEF</t>
-  </si>
-  <si>
-    <t>MGG</t>
-  </si>
-  <si>
-    <t>MIE</t>
-  </si>
-  <si>
-    <t>MKV</t>
-  </si>
-  <si>
-    <t>MLS</t>
-  </si>
-  <si>
-    <t>MPY</t>
-  </si>
-  <si>
-    <t>MQB</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>MTG</t>
-  </si>
-  <si>
-    <t>MTH</t>
-  </si>
-  <si>
-    <t>MVB</t>
-  </si>
-  <si>
-    <t>NAC</t>
-  </si>
-  <si>
-    <t>NAG</t>
-  </si>
-  <si>
-    <t>NDP</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>NFC</t>
-  </si>
-  <si>
-    <t>NHA</t>
-  </si>
-  <si>
-    <t>NHT</t>
-  </si>
-  <si>
-    <t>NJC</t>
-  </si>
-  <si>
-    <t>NLS</t>
-  </si>
-  <si>
-    <t>NQB</t>
-  </si>
-  <si>
-    <t>NS2</t>
+    <t>HAG</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>HAR</t>
+  </si>
+  <si>
+    <t>HBD</t>
+  </si>
+  <si>
+    <t>HBH</t>
+  </si>
+  <si>
+    <t>HEJ</t>
+  </si>
+  <si>
+    <t>HFB</t>
+  </si>
+  <si>
+    <t>HHC</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>HLY</t>
+  </si>
+  <si>
+    <t>HMR</t>
+  </si>
+  <si>
+    <t>HNM</t>
+  </si>
+  <si>
+    <t>HPI</t>
+  </si>
+  <si>
+    <t>HPP</t>
+  </si>
+  <si>
+    <t>HQC</t>
+  </si>
+  <si>
+    <t>HSM</t>
+  </si>
+  <si>
+    <t>HTN</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>IDJ</t>
+  </si>
+  <si>
+    <t>ILB</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>KMR</t>
+  </si>
+  <si>
+    <t>KSQ</t>
+  </si>
+  <si>
+    <t>KTS</t>
+  </si>
+  <si>
+    <t>KWA</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>L62</t>
+  </si>
+  <si>
+    <t>L63</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>LEC</t>
+  </si>
+  <si>
+    <t>LGM</t>
+  </si>
+  <si>
+    <t>LM7</t>
+  </si>
+  <si>
+    <t>LMI</t>
+  </si>
+  <si>
+    <t>LQN</t>
+  </si>
+  <si>
+    <t>LTG</t>
+  </si>
+  <si>
+    <t>MA1</t>
+  </si>
+  <si>
+    <t>MEC</t>
+  </si>
+  <si>
+    <t>MLC</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>MTP</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>NAU</t>
+  </si>
+  <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>NDN</t>
+  </si>
+  <si>
+    <t>NKG</t>
+  </si>
+  <si>
+    <t>NNT</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>NSL</t>
   </si>
   <si>
     <t>NST</t>
   </si>
   <si>
-    <t>NTF</t>
-  </si>
-  <si>
-    <t>NTH</t>
-  </si>
-  <si>
-    <t>NTL</t>
-  </si>
-  <si>
-    <t>NTW</t>
-  </si>
-  <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>NVP</t>
-  </si>
-  <si>
-    <t>NVT</t>
-  </si>
-  <si>
-    <t>PAT</t>
-  </si>
-  <si>
-    <t>PCC</t>
-  </si>
-  <si>
-    <t>PCM</t>
-  </si>
-  <si>
-    <t>PCT</t>
-  </si>
-  <si>
-    <t>PDV</t>
-  </si>
-  <si>
-    <t>PEC</t>
+    <t>NWT</t>
+  </si>
+  <si>
+    <t>ONW</t>
+  </si>
+  <si>
+    <t>OPC</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>PBP</t>
+  </si>
+  <si>
+    <t>PCF</t>
+  </si>
+  <si>
+    <t>PDR</t>
   </si>
   <si>
     <t>PGC</t>
   </si>
   <si>
-    <t>PGT</t>
-  </si>
-  <si>
-    <t>PHC</t>
-  </si>
-  <si>
     <t>PHH</t>
   </si>
   <si>
-    <t>PHN</t>
-  </si>
-  <si>
-    <t>PLE</t>
-  </si>
-  <si>
-    <t>PLX</t>
-  </si>
-  <si>
-    <t>PMB</t>
-  </si>
-  <si>
-    <t>PMJ</t>
-  </si>
-  <si>
-    <t>PMP</t>
-  </si>
-  <si>
-    <t>PMW</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>PNP</t>
-  </si>
-  <si>
-    <t>PPH</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>PSC</t>
-  </si>
-  <si>
-    <t>PSH</t>
-  </si>
-  <si>
-    <t>PSL</t>
-  </si>
-  <si>
-    <t>PTG</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
-    <t>PTO</t>
-  </si>
-  <si>
-    <t>PTP</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>PVA</t>
-  </si>
-  <si>
-    <t>PVE</t>
-  </si>
-  <si>
-    <t>PVH</t>
-  </si>
-  <si>
-    <t>PVL</t>
-  </si>
-  <si>
-    <t>PVM</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>PWA</t>
-  </si>
-  <si>
-    <t>QHD</t>
-  </si>
-  <si>
-    <t>QNT</t>
-  </si>
-  <si>
-    <t>QNU</t>
-  </si>
-  <si>
-    <t>QTC</t>
-  </si>
-  <si>
-    <t>RAT</t>
-  </si>
-  <si>
-    <t>REE</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>SAF</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>SAV</t>
-  </si>
-  <si>
-    <t>SBT</t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>SCD</t>
-  </si>
-  <si>
-    <t>SCY</t>
-  </si>
-  <si>
-    <t>SD4</t>
-  </si>
-  <si>
-    <t>SDD</t>
-  </si>
-  <si>
-    <t>SDG</t>
-  </si>
-  <si>
-    <t>SDK</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>SDV</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>SFG</t>
-  </si>
-  <si>
-    <t>SGN</t>
-  </si>
-  <si>
-    <t>SGT</t>
-  </si>
-  <si>
-    <t>SHC</t>
-  </si>
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>SIG</t>
-  </si>
-  <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>SKG</t>
-  </si>
-  <si>
-    <t>SKN</t>
-  </si>
-  <si>
-    <t>SKV</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>SPB</t>
-  </si>
-  <si>
-    <t>SSC</t>
-  </si>
-  <si>
-    <t>STC</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>STS</t>
-  </si>
-  <si>
-    <t>STW</t>
-  </si>
-  <si>
-    <t>SVD</t>
-  </si>
-  <si>
-    <t>SVH</t>
-  </si>
-  <si>
-    <t>SVI</t>
-  </si>
-  <si>
-    <t>SZC</t>
-  </si>
-  <si>
-    <t>TA6</t>
-  </si>
-  <si>
-    <t>TAB</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TB8</t>
-  </si>
-  <si>
-    <t>TCH</t>
-  </si>
-  <si>
-    <t>TCO</t>
-  </si>
-  <si>
-    <t>TCW</t>
-  </si>
-  <si>
-    <t>TDW</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>TFC</t>
-  </si>
-  <si>
-    <t>TGP</t>
-  </si>
-  <si>
-    <t>THW</t>
-  </si>
-  <si>
-    <t>TJC</t>
-  </si>
-  <si>
-    <t>TKU</t>
-  </si>
-  <si>
-    <t>TL4</t>
+    <t>PIV</t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PNJ</t>
+  </si>
+  <si>
+    <t>PNT</t>
+  </si>
+  <si>
+    <t>POM</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PVO</t>
+  </si>
+  <si>
+    <t>PVP</t>
+  </si>
+  <si>
+    <t>PXM</t>
+  </si>
+  <si>
+    <t>QNC</t>
+  </si>
+  <si>
+    <t>QST</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SBH</t>
+  </si>
+  <si>
+    <t>SBV</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>SDJ</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>SDY</t>
+  </si>
+  <si>
+    <t>SEB</t>
+  </si>
+  <si>
+    <t>SGH</t>
+  </si>
+  <si>
+    <t>SGI</t>
+  </si>
+  <si>
+    <t>SHI</t>
+  </si>
+  <si>
+    <t>SIV</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
+    <t>SQC</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>SSG</t>
+  </si>
+  <si>
+    <t>ST8</t>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TCJ</t>
+  </si>
+  <si>
+    <t>TCT</t>
+  </si>
+  <si>
+    <t>TDB</t>
+  </si>
+  <si>
+    <t>TDM</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>TKA</t>
   </si>
   <si>
     <t>TLP</t>
   </si>
   <si>
-    <t>TLT</t>
-  </si>
-  <si>
-    <t>TMS</t>
-  </si>
-  <si>
-    <t>TMW</t>
-  </si>
-  <si>
-    <t>TNA</t>
-  </si>
-  <si>
-    <t>TNS</t>
-  </si>
-  <si>
-    <t>TOW</t>
-  </si>
-  <si>
-    <t>TPC</t>
-  </si>
-  <si>
-    <t>TPS</t>
-  </si>
-  <si>
-    <t>TQN</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>TRC</t>
-  </si>
-  <si>
-    <t>TRT</t>
-  </si>
-  <si>
-    <t>TS3</t>
-  </si>
-  <si>
-    <t>TSD</t>
-  </si>
-  <si>
-    <t>TSG</t>
-  </si>
-  <si>
-    <t>TV2</t>
-  </si>
-  <si>
-    <t>TV3</t>
-  </si>
-  <si>
-    <t>TVA</t>
-  </si>
-  <si>
-    <t>TW3</t>
-  </si>
-  <si>
-    <t>UDC</t>
-  </si>
-  <si>
-    <t>UDL</t>
-  </si>
-  <si>
-    <t>UPH</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>VAV</t>
-  </si>
-  <si>
-    <t>VC7</t>
-  </si>
-  <si>
-    <t>VC9</t>
+    <t>TNH</t>
+  </si>
+  <si>
+    <t>TNP</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>TNW</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TPH</t>
+  </si>
+  <si>
+    <t>TQW</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>TRS</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>TTE</t>
+  </si>
+  <si>
+    <t>TTG</t>
+  </si>
+  <si>
+    <t>TTP</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>TV6</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>VBG</t>
+  </si>
+  <si>
+    <t>VC6</t>
   </si>
   <si>
     <t>VCE</t>
   </si>
   <si>
-    <t>VCR</t>
-  </si>
-  <si>
-    <t>VE2</t>
-  </si>
-  <si>
-    <t>VE3</t>
-  </si>
-  <si>
-    <t>VE8</t>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VDN</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>VES</t>
   </si>
   <si>
     <t>VFC</t>
   </si>
   <si>
-    <t>VFG</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
-    <t>VGP</t>
-  </si>
-  <si>
-    <t>VHE</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>VIH</t>
-  </si>
-  <si>
-    <t>VJC</t>
-  </si>
-  <si>
-    <t>VLA</t>
-  </si>
-  <si>
-    <t>VLC</t>
-  </si>
-  <si>
-    <t>VLW</t>
-  </si>
-  <si>
-    <t>VMK</t>
-  </si>
-  <si>
-    <t>VMT</t>
+    <t>VGL</t>
+  </si>
+  <si>
+    <t>VHD</t>
+  </si>
+  <si>
+    <t>VHG</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VKC</t>
+  </si>
+  <si>
+    <t>VMA</t>
   </si>
   <si>
     <t>VNE</t>
   </si>
   <si>
-    <t>VNH</t>
-  </si>
-  <si>
-    <t>VNI</t>
-  </si>
-  <si>
-    <t>VNP</t>
-  </si>
-  <si>
-    <t>VPI</t>
+    <t>VNS</t>
+  </si>
+  <si>
+    <t>VNX</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>VPR</t>
+  </si>
+  <si>
+    <t>VPW</t>
   </si>
   <si>
     <t>VRE</t>
   </si>
   <si>
-    <t>VSE</t>
-  </si>
-  <si>
-    <t>VSH</t>
-  </si>
-  <si>
-    <t>VTG</t>
-  </si>
-  <si>
-    <t>VUG</t>
-  </si>
-  <si>
-    <t>VVN</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>XMC</t>
-  </si>
-  <si>
-    <t>XMD</t>
-  </si>
-  <si>
-    <t>YTC</t>
-  </si>
-  <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>AAT</t>
-  </si>
-  <si>
-    <t>ABR</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t>AGP</t>
-  </si>
-  <si>
-    <t>ALV</t>
-  </si>
-  <si>
-    <t>AMV</t>
-  </si>
-  <si>
-    <t>APT</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>BBM</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>BCV</t>
-  </si>
-  <si>
-    <t>BDB</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>BLF</t>
-  </si>
-  <si>
-    <t>BMG</t>
-  </si>
-  <si>
-    <t>BNA</t>
-  </si>
-  <si>
-    <t>BRS</t>
-  </si>
-  <si>
-    <t>BSC</t>
-  </si>
-  <si>
-    <t>BTB</t>
-  </si>
-  <si>
-    <t>BTP</t>
-  </si>
-  <si>
-    <t>BVL</t>
+    <t>VSG</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>VTA</t>
+  </si>
+  <si>
+    <t>VTD</t>
+  </si>
+  <si>
+    <t>VTE</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>VTL</t>
+  </si>
+  <si>
+    <t>VTS</t>
+  </si>
+  <si>
+    <t>VWS</t>
+  </si>
+  <si>
+    <t>VXP</t>
+  </si>
+  <si>
+    <t>WTC</t>
+  </si>
+  <si>
+    <t>YBC</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>APF</t>
+  </si>
+  <si>
+    <t>APL</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>BCB</t>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>BII</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>BMN</t>
+  </si>
+  <si>
+    <t>BTG</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BTT</t>
+  </si>
+  <si>
+    <t>BVN</t>
+  </si>
+  <si>
+    <t>BWA</t>
   </si>
   <si>
     <t>C21</t>
   </si>
   <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>CCS</t>
-  </si>
-  <si>
-    <t>CCT</t>
-  </si>
-  <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>CDH</t>
-  </si>
-  <si>
-    <t>CDR</t>
-  </si>
-  <si>
-    <t>CGV</t>
-  </si>
-  <si>
-    <t>CI5</t>
-  </si>
-  <si>
-    <t>CIA</t>
-  </si>
-  <si>
-    <t>CKG</t>
-  </si>
-  <si>
-    <t>CMI</t>
-  </si>
-  <si>
-    <t>COM</t>
+    <t>C92</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>CAV</t>
+  </si>
+  <si>
+    <t>CBV</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>CFM</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>CIP</t>
+  </si>
+  <si>
+    <t>CK8</t>
+  </si>
+  <si>
+    <t>CKA</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>CNA</t>
+  </si>
+  <si>
+    <t>CNC</t>
   </si>
   <si>
     <t>CPH</t>
   </si>
   <si>
-    <t>CTC</t>
+    <t>CT6</t>
+  </si>
+  <si>
+    <t>CTX</t>
   </si>
   <si>
     <t>CYC</t>
   </si>
   <si>
-    <t>DAN</t>
-  </si>
-  <si>
-    <t>DBM</t>
-  </si>
-  <si>
-    <t>DC4</t>
-  </si>
-  <si>
-    <t>DCL</t>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>DCS</t>
   </si>
   <si>
     <t>DCT</t>
   </si>
   <si>
-    <t>DDM</t>
-  </si>
-  <si>
-    <t>DGC</t>
-  </si>
-  <si>
-    <t>DHA</t>
-  </si>
-  <si>
-    <t>DIH</t>
-  </si>
-  <si>
-    <t>DKW</t>
-  </si>
-  <si>
-    <t>DLD</t>
-  </si>
-  <si>
-    <t>DLT</t>
-  </si>
-  <si>
-    <t>DMS</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>DNM</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>DPC</t>
-  </si>
-  <si>
-    <t>DPP</t>
-  </si>
-  <si>
-    <t>DUS</t>
-  </si>
-  <si>
-    <t>DXL</t>
-  </si>
-  <si>
-    <t>DXP</t>
-  </si>
-  <si>
-    <t>DZM</t>
-  </si>
-  <si>
-    <t>EPC</t>
-  </si>
-  <si>
-    <t>EVG</t>
-  </si>
-  <si>
-    <t>FGL</t>
-  </si>
-  <si>
-    <t>FHN</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>GLC</t>
-  </si>
-  <si>
-    <t>GLT</t>
-  </si>
-  <si>
-    <t>HAG</t>
-  </si>
-  <si>
-    <t>HAM</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>HBD</t>
-  </si>
-  <si>
-    <t>HBH</t>
-  </si>
-  <si>
-    <t>HEJ</t>
-  </si>
-  <si>
-    <t>HFB</t>
-  </si>
-  <si>
-    <t>HGT</t>
-  </si>
-  <si>
-    <t>HHC</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>HLY</t>
-  </si>
-  <si>
-    <t>HMH</t>
-  </si>
-  <si>
-    <t>HMR</t>
-  </si>
-  <si>
-    <t>HNM</t>
-  </si>
-  <si>
-    <t>HPI</t>
-  </si>
-  <si>
-    <t>HPP</t>
-  </si>
-  <si>
-    <t>HQC</t>
-  </si>
-  <si>
-    <t>HSM</t>
-  </si>
-  <si>
-    <t>HTN</t>
-  </si>
-  <si>
-    <t>HTT</t>
-  </si>
-  <si>
-    <t>IBD</t>
-  </si>
-  <si>
-    <t>ICC</t>
-  </si>
-  <si>
-    <t>ICI</t>
-  </si>
-  <si>
-    <t>IDJ</t>
-  </si>
-  <si>
-    <t>ILB</t>
-  </si>
-  <si>
-    <t>ILC</t>
-  </si>
-  <si>
-    <t>IN4</t>
-  </si>
-  <si>
-    <t>ISG</t>
-  </si>
-  <si>
-    <t>KMR</t>
-  </si>
-  <si>
-    <t>KSQ</t>
-  </si>
-  <si>
-    <t>KTS</t>
-  </si>
-  <si>
-    <t>KVC</t>
-  </si>
-  <si>
-    <t>KWA</t>
-  </si>
-  <si>
-    <t>L35</t>
-  </si>
-  <si>
-    <t>L43</t>
-  </si>
-  <si>
-    <t>L45</t>
-  </si>
-  <si>
-    <t>L62</t>
-  </si>
-  <si>
-    <t>L63</t>
-  </si>
-  <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>LEC</t>
-  </si>
-  <si>
-    <t>LGM</t>
-  </si>
-  <si>
-    <t>LM7</t>
-  </si>
-  <si>
-    <t>LMI</t>
-  </si>
-  <si>
-    <t>LQN</t>
-  </si>
-  <si>
-    <t>LTG</t>
-  </si>
-  <si>
-    <t>MA1</t>
-  </si>
-  <si>
-    <t>MEC</t>
-  </si>
-  <si>
-    <t>MLC</t>
-  </si>
-  <si>
-    <t>MND</t>
-  </si>
-  <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>MTB</t>
-  </si>
-  <si>
-    <t>MTC</t>
-  </si>
-  <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>MTP</t>
-  </si>
-  <si>
-    <t>NAS</t>
-  </si>
-  <si>
-    <t>NAU</t>
-  </si>
-  <si>
-    <t>NCS</t>
-  </si>
-  <si>
-    <t>NDC</t>
-  </si>
-  <si>
-    <t>NDN</t>
-  </si>
-  <si>
-    <t>NKG</t>
-  </si>
-  <si>
-    <t>NNT</t>
-  </si>
-  <si>
-    <t>NRC</t>
-  </si>
-  <si>
-    <t>NSL</t>
-  </si>
-  <si>
-    <t>NWT</t>
-  </si>
-  <si>
-    <t>ONW</t>
-  </si>
-  <si>
-    <t>OPC</t>
-  </si>
-  <si>
-    <t>PAP</t>
-  </si>
-  <si>
-    <t>PBC</t>
-  </si>
-  <si>
-    <t>PBP</t>
-  </si>
-  <si>
-    <t>PCF</t>
-  </si>
-  <si>
-    <t>PDR</t>
-  </si>
-  <si>
-    <t>PEQ</t>
-  </si>
-  <si>
-    <t>PIV</t>
-  </si>
-  <si>
-    <t>PNC</t>
-  </si>
-  <si>
-    <t>PNJ</t>
-  </si>
-  <si>
-    <t>PNT</t>
-  </si>
-  <si>
-    <t>POM</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>PVO</t>
-  </si>
-  <si>
-    <t>PVP</t>
-  </si>
-  <si>
-    <t>PXM</t>
-  </si>
-  <si>
-    <t>QNC</t>
-  </si>
-  <si>
-    <t>QST</t>
-  </si>
-  <si>
-    <t>RCC</t>
-  </si>
-  <si>
-    <t>RDP</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>SBA</t>
-  </si>
-  <si>
-    <t>SBH</t>
-  </si>
-  <si>
-    <t>SBV</t>
-  </si>
-  <si>
-    <t>SD3</t>
-  </si>
-  <si>
-    <t>SDJ</t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>SDY</t>
-  </si>
-  <si>
-    <t>SEB</t>
-  </si>
-  <si>
-    <t>SGH</t>
-  </si>
-  <si>
-    <t>SGI</t>
-  </si>
-  <si>
-    <t>SHI</t>
-  </si>
-  <si>
-    <t>SIV</t>
-  </si>
-  <si>
-    <t>SJM</t>
-  </si>
-  <si>
-    <t>SNC</t>
+    <t>DDH</t>
+  </si>
+  <si>
+    <t>DFF</t>
+  </si>
+  <si>
+    <t>DHT</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>DKC</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>DMN</t>
+  </si>
+  <si>
+    <t>DNL</t>
+  </si>
+  <si>
+    <t>DNT</t>
+  </si>
+  <si>
+    <t>DPH</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>DTB</t>
+  </si>
+  <si>
+    <t>DTG</t>
+  </si>
+  <si>
+    <t>DVG</t>
+  </si>
+  <si>
+    <t>EFI</t>
+  </si>
+  <si>
+    <t>EPH</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>FIR</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>FTI</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GCB</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>GTD</t>
+  </si>
+  <si>
+    <t>HAT</t>
+  </si>
+  <si>
+    <t>HC1</t>
+  </si>
+  <si>
+    <t>HCD</t>
+  </si>
+  <si>
+    <t>HCI</t>
+  </si>
+  <si>
+    <t>HD8</t>
+  </si>
+  <si>
+    <t>HDS</t>
+  </si>
+  <si>
+    <t>HEC</t>
+  </si>
+  <si>
+    <t>HEM</t>
+  </si>
+  <si>
+    <t>HFX</t>
+  </si>
+  <si>
+    <t>HGW</t>
+  </si>
+  <si>
+    <t>HHG</t>
+  </si>
+  <si>
+    <t>HKB</t>
+  </si>
+  <si>
+    <t>HMG</t>
+  </si>
+  <si>
+    <t>HPD</t>
+  </si>
+  <si>
+    <t>HPM</t>
+  </si>
+  <si>
+    <t>HPT</t>
+  </si>
+  <si>
+    <t>HRB</t>
+  </si>
+  <si>
+    <t>HRT</t>
+  </si>
+  <si>
+    <t>HU3</t>
+  </si>
+  <si>
+    <t>HU6</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>IHK</t>
+  </si>
+  <si>
+    <t>ILA</t>
+  </si>
+  <si>
+    <t>IME</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>KLF</t>
+  </si>
+  <si>
+    <t>KSH</t>
+  </si>
+  <si>
+    <t>KTT</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L61</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+  <si>
+    <t>LDG</t>
+  </si>
+  <si>
+    <t>LG9</t>
+  </si>
+  <si>
+    <t>LGL</t>
+  </si>
+  <si>
+    <t>LM3</t>
+  </si>
+  <si>
+    <t>LMH</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>MBN</t>
+  </si>
+  <si>
+    <t>MBT</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MFS</t>
+  </si>
+  <si>
+    <t>MGC</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MQN</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>MTV</t>
+  </si>
+  <si>
+    <t>MTX</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>NBE</t>
+  </si>
+  <si>
+    <t>NBW</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>NSG</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>ODE</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>PDC</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>PJS</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>PND</t>
+  </si>
+  <si>
+    <t>POB</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>PV2</t>
+  </si>
+  <si>
+    <t>PXA</t>
+  </si>
+  <si>
+    <t>PXC</t>
+  </si>
+  <si>
+    <t>QBS</t>
+  </si>
+  <si>
+    <t>QCC</t>
+  </si>
+  <si>
+    <t>QHW</t>
+  </si>
+  <si>
+    <t>QSP</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>RGC</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>SBR</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SGV</t>
+  </si>
+  <si>
+    <t>SHG</t>
+  </si>
+  <si>
+    <t>SJE</t>
+  </si>
+  <si>
+    <t>SPH</t>
+  </si>
+  <si>
+    <t>SPI</t>
   </si>
   <si>
     <t>SPV</t>
   </si>
   <si>
-    <t>SQC</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>SSG</t>
-  </si>
-  <si>
-    <t>ST8</t>
-  </si>
-  <si>
-    <t>STK</t>
-  </si>
-  <si>
-    <t>STT</t>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>TAW</t>
+  </si>
+  <si>
+    <t>TBR</t>
+  </si>
+  <si>
+    <t>TBW</t>
+  </si>
+  <si>
+    <t>TC6</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>TCJ</t>
-  </si>
-  <si>
-    <t>TCT</t>
-  </si>
-  <si>
-    <t>TDB</t>
-  </si>
-  <si>
-    <t>TED</t>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>TEG</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>THD</t>
   </si>
   <si>
     <t>THU</t>
   </si>
   <si>
-    <t>TKA</t>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>TIE</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>TKG</t>
   </si>
   <si>
     <t>TLI</t>
   </si>
   <si>
-    <t>TNH</t>
-  </si>
-  <si>
-    <t>TNP</t>
-  </si>
-  <si>
-    <t>TNT</t>
-  </si>
-  <si>
-    <t>TNW</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>TPH</t>
-  </si>
-  <si>
-    <t>TQW</t>
-  </si>
-  <si>
-    <t>TR1</t>
-  </si>
-  <si>
-    <t>TRS</t>
-  </si>
-  <si>
-    <t>TTC</t>
-  </si>
-  <si>
-    <t>TTE</t>
-  </si>
-  <si>
-    <t>TTG</t>
-  </si>
-  <si>
-    <t>TTP</t>
-  </si>
-  <si>
-    <t>TTT</t>
-  </si>
-  <si>
-    <t>TV6</t>
-  </si>
-  <si>
-    <t>TVM</t>
-  </si>
-  <si>
-    <t>UMC</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>V21</t>
-  </si>
-  <si>
-    <t>VBG</t>
-  </si>
-  <si>
-    <t>VC6</t>
-  </si>
-  <si>
-    <t>VCT</t>
-  </si>
-  <si>
-    <t>VDN</t>
-  </si>
-  <si>
-    <t>VEF</t>
-  </si>
-  <si>
-    <t>VES</t>
-  </si>
-  <si>
-    <t>VGL</t>
-  </si>
-  <si>
-    <t>VHD</t>
-  </si>
-  <si>
-    <t>VHG</t>
-  </si>
-  <si>
-    <t>VIM</t>
-  </si>
-  <si>
-    <t>VIR</t>
-  </si>
-  <si>
-    <t>VKC</t>
-  </si>
-  <si>
-    <t>VMA</t>
-  </si>
-  <si>
-    <t>VNS</t>
-  </si>
-  <si>
-    <t>VNX</t>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>TN1</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TTZ</t>
+  </si>
+  <si>
+    <t>TUG</t>
+  </si>
+  <si>
+    <t>TVG</t>
+  </si>
+  <si>
+    <t>TVH</t>
+  </si>
+  <si>
+    <t>TVW</t>
+  </si>
+  <si>
+    <t>UCT</t>
+  </si>
+  <si>
+    <t>UEM</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>VBH</t>
+  </si>
+  <si>
+    <t>VCF</t>
+  </si>
+  <si>
+    <t>VDB</t>
+  </si>
+  <si>
+    <t>VDG</t>
+  </si>
+  <si>
+    <t>VDL</t>
+  </si>
+  <si>
+    <t>VDT</t>
+  </si>
+  <si>
+    <t>VE9</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>VHH</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>VLP</t>
+  </si>
+  <si>
+    <t>VMG</t>
+  </si>
+  <si>
+    <t>VNG</t>
   </si>
   <si>
     <t>VPA</t>
-  </si>
-  <si>
-    <t>VPC</t>
-  </si>
-  <si>
-    <t>VPW</t>
-  </si>
-  <si>
-    <t>VSG</t>
-  </si>
-  <si>
-    <t>VST</t>
-  </si>
-  <si>
-    <t>VTA</t>
-  </si>
-  <si>
-    <t>VTD</t>
-  </si>
-  <si>
-    <t>VTE</t>
-  </si>
-  <si>
-    <t>VTK</t>
-  </si>
-  <si>
-    <t>VTL</t>
-  </si>
-  <si>
-    <t>VTS</t>
-  </si>
-  <si>
-    <t>VWS</t>
-  </si>
-  <si>
-    <t>VXP</t>
-  </si>
-  <si>
-    <t>WTC</t>
-  </si>
-  <si>
-    <t>YBC</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
-    <t>AGM</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>APF</t>
-  </si>
-  <si>
-    <t>APL</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>BCB</t>
-  </si>
-  <si>
-    <t>BCR</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>BHC</t>
-  </si>
-  <si>
-    <t>BHP</t>
-  </si>
-  <si>
-    <t>BII</t>
-  </si>
-  <si>
-    <t>BLT</t>
-  </si>
-  <si>
-    <t>BMD</t>
-  </si>
-  <si>
-    <t>BMN</t>
-  </si>
-  <si>
-    <t>BTG</t>
-  </si>
-  <si>
-    <t>BTN</t>
-  </si>
-  <si>
-    <t>BTT</t>
-  </si>
-  <si>
-    <t>BVN</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>C92</t>
-  </si>
-  <si>
-    <t>CAB</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>CAV</t>
-  </si>
-  <si>
-    <t>CBV</t>
-  </si>
-  <si>
-    <t>CCM</t>
-  </si>
-  <si>
-    <t>CDG</t>
-  </si>
-  <si>
-    <t>CFM</t>
-  </si>
-  <si>
-    <t>CHS</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>CIP</t>
-  </si>
-  <si>
-    <t>CK8</t>
-  </si>
-  <si>
-    <t>CKA</t>
-  </si>
-  <si>
-    <t>CMN</t>
-  </si>
-  <si>
-    <t>CMT</t>
-  </si>
-  <si>
-    <t>CNA</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>CT6</t>
-  </si>
-  <si>
-    <t>CTX</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>DAG</t>
-  </si>
-  <si>
-    <t>DAS</t>
-  </si>
-  <si>
-    <t>DCS</t>
-  </si>
-  <si>
-    <t>DDH</t>
-  </si>
-  <si>
-    <t>DFF</t>
-  </si>
-  <si>
-    <t>DHT</t>
-  </si>
-  <si>
-    <t>DIC</t>
-  </si>
-  <si>
-    <t>DKC</t>
-  </si>
-  <si>
-    <t>DL1</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>DMN</t>
-  </si>
-  <si>
-    <t>DNL</t>
-  </si>
-  <si>
-    <t>DNT</t>
-  </si>
-  <si>
-    <t>DPH</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>DTB</t>
-  </si>
-  <si>
-    <t>DTG</t>
-  </si>
-  <si>
-    <t>DVG</t>
-  </si>
-  <si>
-    <t>EFI</t>
-  </si>
-  <si>
-    <t>EPH</t>
-  </si>
-  <si>
-    <t>FCS</t>
-  </si>
-  <si>
-    <t>FIR</t>
-  </si>
-  <si>
-    <t>FRM</t>
-  </si>
-  <si>
-    <t>FTI</t>
-  </si>
-  <si>
-    <t>GAB</t>
-  </si>
-  <si>
-    <t>GCB</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>GTD</t>
-  </si>
-  <si>
-    <t>HAT</t>
-  </si>
-  <si>
-    <t>HC1</t>
-  </si>
-  <si>
-    <t>HCD</t>
-  </si>
-  <si>
-    <t>HCI</t>
-  </si>
-  <si>
-    <t>HD8</t>
-  </si>
-  <si>
-    <t>HDS</t>
-  </si>
-  <si>
-    <t>HEC</t>
-  </si>
-  <si>
-    <t>HEM</t>
-  </si>
-  <si>
-    <t>HFX</t>
-  </si>
-  <si>
-    <t>HGW</t>
-  </si>
-  <si>
-    <t>HHG</t>
-  </si>
-  <si>
-    <t>HKB</t>
-  </si>
-  <si>
-    <t>HMG</t>
-  </si>
-  <si>
-    <t>HPD</t>
-  </si>
-  <si>
-    <t>HPM</t>
-  </si>
-  <si>
-    <t>HPT</t>
-  </si>
-  <si>
-    <t>HRB</t>
-  </si>
-  <si>
-    <t>HRT</t>
-  </si>
-  <si>
-    <t>HU3</t>
-  </si>
-  <si>
-    <t>HU6</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>IFS</t>
-  </si>
-  <si>
-    <t>IHK</t>
-  </si>
-  <si>
-    <t>ILA</t>
-  </si>
-  <si>
-    <t>IME</t>
-  </si>
-  <si>
-    <t>JVC</t>
-  </si>
-  <si>
-    <t>KBC</t>
-  </si>
-  <si>
-    <t>KLF</t>
-  </si>
-  <si>
-    <t>KSH</t>
-  </si>
-  <si>
-    <t>KTT</t>
-  </si>
-  <si>
-    <t>L14</t>
-  </si>
-  <si>
-    <t>L61</t>
-  </si>
-  <si>
-    <t>LCM</t>
-  </si>
-  <si>
-    <t>LDG</t>
-  </si>
-  <si>
-    <t>LG9</t>
-  </si>
-  <si>
-    <t>LGL</t>
-  </si>
-  <si>
-    <t>LM3</t>
-  </si>
-  <si>
-    <t>LMH</t>
-  </si>
-  <si>
-    <t>LUT</t>
-  </si>
-  <si>
-    <t>MBN</t>
-  </si>
-  <si>
-    <t>MBT</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>MFS</t>
-  </si>
-  <si>
-    <t>MGC</t>
-  </si>
-  <si>
-    <t>MHL</t>
-  </si>
-  <si>
-    <t>MQN</t>
-  </si>
-  <si>
-    <t>MST</t>
-  </si>
-  <si>
-    <t>MTV</t>
-  </si>
-  <si>
-    <t>MTX</t>
-  </si>
-  <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>NBE</t>
-  </si>
-  <si>
-    <t>NBW</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>NSG</t>
-  </si>
-  <si>
-    <t>NSS</t>
-  </si>
-  <si>
-    <t>NXT</t>
-  </si>
-  <si>
-    <t>ODE</t>
-  </si>
-  <si>
-    <t>PAI</t>
-  </si>
-  <si>
-    <t>PCG</t>
-  </si>
-  <si>
-    <t>PDC</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>PJS</t>
-  </si>
-  <si>
-    <t>PLA</t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>PMT</t>
-  </si>
-  <si>
-    <t>PND</t>
-  </si>
-  <si>
-    <t>POB</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>PTL</t>
-  </si>
-  <si>
-    <t>PV2</t>
-  </si>
-  <si>
-    <t>PXA</t>
-  </si>
-  <si>
-    <t>PXC</t>
-  </si>
-  <si>
-    <t>QBS</t>
-  </si>
-  <si>
-    <t>QCC</t>
-  </si>
-  <si>
-    <t>QHW</t>
-  </si>
-  <si>
-    <t>QSP</t>
-  </si>
-  <si>
-    <t>RBC</t>
-  </si>
-  <si>
-    <t>RGC</t>
-  </si>
-  <si>
-    <t>S74</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>SB1</t>
-  </si>
-  <si>
-    <t>SBD</t>
-  </si>
-  <si>
-    <t>SBR</t>
-  </si>
-  <si>
-    <t>SCO</t>
-  </si>
-  <si>
-    <t>SD2</t>
-  </si>
-  <si>
-    <t>SD7</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>SGV</t>
-  </si>
-  <si>
-    <t>SHG</t>
-  </si>
-  <si>
-    <t>SJE</t>
-  </si>
-  <si>
-    <t>SPH</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>SRT</t>
-  </si>
-  <si>
-    <t>SSH</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>SVN</t>
-  </si>
-  <si>
-    <t>TAW</t>
-  </si>
-  <si>
-    <t>TBR</t>
-  </si>
-  <si>
-    <t>TBW</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TDM</t>
-  </si>
-  <si>
-    <t>TDN</t>
-  </si>
-  <si>
-    <t>TEG</t>
-  </si>
-  <si>
-    <t>TH1</t>
-  </si>
-  <si>
-    <t>THD</t>
-  </si>
-  <si>
-    <t>TID</t>
-  </si>
-  <si>
-    <t>TIE</t>
-  </si>
-  <si>
-    <t>TIG</t>
-  </si>
-  <si>
-    <t>TKG</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>TMT</t>
-  </si>
-  <si>
-    <t>TN1</t>
-  </si>
-  <si>
-    <t>TS4</t>
-  </si>
-  <si>
-    <t>TST</t>
-  </si>
-  <si>
-    <t>TTZ</t>
-  </si>
-  <si>
-    <t>TUG</t>
-  </si>
-  <si>
-    <t>TVG</t>
-  </si>
-  <si>
-    <t>TVH</t>
-  </si>
-  <si>
-    <t>TVW</t>
-  </si>
-  <si>
-    <t>UCT</t>
-  </si>
-  <si>
-    <t>UEM</t>
-  </si>
-  <si>
-    <t>UPC</t>
-  </si>
-  <si>
-    <t>V11</t>
-  </si>
-  <si>
-    <t>VBH</t>
-  </si>
-  <si>
-    <t>VCF</t>
-  </si>
-  <si>
-    <t>VDB</t>
-  </si>
-  <si>
-    <t>VDG</t>
-  </si>
-  <si>
-    <t>VDL</t>
-  </si>
-  <si>
-    <t>VDT</t>
-  </si>
-  <si>
-    <t>VE9</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>VHH</t>
-  </si>
-  <si>
-    <t>VIE</t>
-  </si>
-  <si>
-    <t>VLP</t>
-  </si>
-  <si>
-    <t>VMG</t>
-  </si>
-  <si>
-    <t>VNG</t>
-  </si>
-  <si>
-    <t>VPR</t>
   </si>
   <si>
     <t>VQC</t>
@@ -7807,10 +7807,10 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C199" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D199" t="s">
         <v>1549</v>
@@ -7821,10 +7821,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C200" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D200" t="s">
         <v>1549</v>
@@ -7835,10 +7835,10 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C201" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D201" t="s">
         <v>1549</v>
@@ -7849,10 +7849,10 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C202" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D202" t="s">
         <v>1549</v>
@@ -7863,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C203" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D203" t="s">
         <v>1549</v>
@@ -11167,10 +11167,10 @@
         <v>441</v>
       </c>
       <c r="B439" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C439" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D439" t="s">
         <v>1549</v>
@@ -11181,10 +11181,10 @@
         <v>442</v>
       </c>
       <c r="B440" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C440" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D440" t="s">
         <v>1549</v>
@@ -11195,10 +11195,10 @@
         <v>443</v>
       </c>
       <c r="B441" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C441" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D441" t="s">
         <v>1549</v>
@@ -11209,10 +11209,10 @@
         <v>444</v>
       </c>
       <c r="B442" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C442" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D442" t="s">
         <v>1549</v>
@@ -11223,10 +11223,10 @@
         <v>445</v>
       </c>
       <c r="B443" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C443" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D443" t="s">
         <v>1549</v>
@@ -11237,10 +11237,10 @@
         <v>446</v>
       </c>
       <c r="B444" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C444" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D444" t="s">
         <v>1549</v>
@@ -11251,10 +11251,10 @@
         <v>447</v>
       </c>
       <c r="B445" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C445" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D445" t="s">
         <v>1549</v>
@@ -11265,10 +11265,10 @@
         <v>448</v>
       </c>
       <c r="B446" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C446" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D446" t="s">
         <v>1549</v>
@@ -11279,10 +11279,10 @@
         <v>449</v>
       </c>
       <c r="B447" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C447" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D447" t="s">
         <v>1549</v>
@@ -11293,10 +11293,10 @@
         <v>450</v>
       </c>
       <c r="B448" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C448" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D448" t="s">
         <v>1549</v>
@@ -14359,10 +14359,10 @@
         <v>669</v>
       </c>
       <c r="B667" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C667" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D667" t="s">
         <v>1549</v>
@@ -14373,10 +14373,10 @@
         <v>670</v>
       </c>
       <c r="B668" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C668" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D668" t="s">
         <v>1549</v>
@@ -14387,10 +14387,10 @@
         <v>671</v>
       </c>
       <c r="B669" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C669" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D669" t="s">
         <v>1549</v>
@@ -14401,10 +14401,10 @@
         <v>672</v>
       </c>
       <c r="B670" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C670" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D670" t="s">
         <v>1549</v>
@@ -14415,10 +14415,10 @@
         <v>673</v>
       </c>
       <c r="B671" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C671" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D671" t="s">
         <v>1549</v>
@@ -14429,10 +14429,10 @@
         <v>674</v>
       </c>
       <c r="B672" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C672" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D672" t="s">
         <v>1549</v>
@@ -14443,10 +14443,10 @@
         <v>675</v>
       </c>
       <c r="B673" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C673" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D673" t="s">
         <v>1549</v>
@@ -14457,10 +14457,10 @@
         <v>676</v>
       </c>
       <c r="B674" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C674" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D674" t="s">
         <v>1549</v>
@@ -14471,10 +14471,10 @@
         <v>677</v>
       </c>
       <c r="B675" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C675" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D675" t="s">
         <v>1549</v>
@@ -14485,10 +14485,10 @@
         <v>678</v>
       </c>
       <c r="B676" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C676" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D676" t="s">
         <v>1549</v>
@@ -14499,10 +14499,10 @@
         <v>679</v>
       </c>
       <c r="B677" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C677" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D677" t="s">
         <v>1549</v>
@@ -19539,10 +19539,10 @@
         <v>1039</v>
       </c>
       <c r="B1037" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1037" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1037" t="s">
         <v>1549</v>
@@ -19553,10 +19553,10 @@
         <v>1040</v>
       </c>
       <c r="B1038" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1038" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1038" t="s">
         <v>1549</v>
@@ -19567,10 +19567,10 @@
         <v>1041</v>
       </c>
       <c r="B1039" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1039" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1039" t="s">
         <v>1549</v>
@@ -19581,10 +19581,10 @@
         <v>1042</v>
       </c>
       <c r="B1040" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1040" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1040" t="s">
         <v>1549</v>
@@ -19595,10 +19595,10 @@
         <v>1043</v>
       </c>
       <c r="B1041" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1041" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1041" t="s">
         <v>1549</v>
@@ -19609,10 +19609,10 @@
         <v>1044</v>
       </c>
       <c r="B1042" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1042" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1042" t="s">
         <v>1549</v>
@@ -19623,10 +19623,10 @@
         <v>1045</v>
       </c>
       <c r="B1043" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C1043" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D1043" t="s">
         <v>1549</v>
@@ -22839,14 +22839,14 @@
       </c>
     </row>
     <row r="1273" spans="1:4">
-      <c r="A1273" t="s">
-        <v>1275</v>
+      <c r="A1273">
+        <v>0</v>
       </c>
       <c r="B1273" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1273" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1273" t="s">
         <v>1549</v>
@@ -22854,13 +22854,13 @@
     </row>
     <row r="1274" spans="1:4">
       <c r="A1274" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1274" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1274" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1274" t="s">
         <v>1549</v>
@@ -22868,13 +22868,13 @@
     </row>
     <row r="1275" spans="1:4">
       <c r="A1275" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1275" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1275" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1275" t="s">
         <v>1549</v>
@@ -22882,13 +22882,13 @@
     </row>
     <row r="1276" spans="1:4">
       <c r="A1276" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1276" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C1276" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D1276" t="s">
         <v>1549</v>
@@ -22896,21 +22896,21 @@
     </row>
     <row r="1277" spans="1:4">
       <c r="A1277" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4">
+      <c r="A1278" t="s">
         <v>1279</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C1277" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:4">
-      <c r="A1278">
-        <v>0</v>
       </c>
       <c r="B1278" t="s">
         <v>1541</v>

--- a/result/summary.xlsx
+++ b/result/summary.xlsx
@@ -4624,40 +4624,40 @@
     <t>WSS</t>
   </si>
   <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>PVI</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
     <t>BHI</t>
   </si>
   <si>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>MIG</t>
+  </si>
+  <si>
+    <t>PGI</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>BLI</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
     <t>PTI</t>
-  </si>
-  <si>
-    <t>PVI</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>BVH</t>
-  </si>
-  <si>
-    <t>MIG</t>
-  </si>
-  <si>
-    <t>PGI</t>
-  </si>
-  <si>
-    <t>ABI</t>
-  </si>
-  <si>
-    <t>BLI</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>BIC</t>
   </si>
   <si>
     <t>VNR</t>
@@ -26581,10 +26581,10 @@
         <v>1538</v>
       </c>
       <c r="B1537" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C1537" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D1537" t="s">
         <v>1564</v>
@@ -26679,10 +26679,10 @@
         <v>1545</v>
       </c>
       <c r="B1544" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C1544" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D1544" t="s">
         <v>1564</v>
@@ -26693,10 +26693,10 @@
         <v>1546</v>
       </c>
       <c r="B1545" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C1545" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D1545" t="s">
         <v>1564</v>
@@ -26721,10 +26721,10 @@
         <v>1548</v>
       </c>
       <c r="B1547" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C1547" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D1547" t="s">
         <v>1564</v>
